--- a/openpyxl_test/test.xlsx
+++ b/openpyxl_test/test.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15255" windowHeight="8520"/>
+    <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="72">
   <si>
     <t>序号</t>
   </si>
@@ -209,6 +209,21 @@
   </si>
   <si>
     <t xml:space="preserve">张利红母女	</t>
+  </si>
+  <si>
+    <t>sdfsdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">周姗姗	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017/02/06 	</t>
+  </si>
+  <si>
+    <t>1,600.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6217995030009102086	</t>
   </si>
   <si>
     <t>合计</t>
@@ -222,177 +237,177 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ " numFmtId="164"/>
+    <numFmt formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ " numFmtId="165"/>
+    <numFmt formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ " numFmtId="166"/>
+    <numFmt formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ " numFmtId="167"/>
   </numFmts>
   <fonts count="22">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
       <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
       <sz val="10"/>
+    </font>
+    <font>
       <name val="Arial"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="10"/>
+    </font>
+    <font>
       <name val="宋体"/>
       <charset val="0"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <color rgb="FF9C0006"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <color theme="0"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <color rgb="FFFF0000"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="18"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="15"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="13"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <color rgb="FF006100"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <color rgb="FF9C6500"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="33">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -707,231 +722,134 @@
     </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="166"/>
+    <xf borderId="0" fillId="8" fontId="4" numFmtId="0"/>
+    <xf borderId="2" fillId="11" fontId="8" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="167"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="165"/>
+    <xf borderId="0" fillId="7" fontId="4" numFmtId="0"/>
+    <xf borderId="0" fillId="4" fontId="5" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="164"/>
+    <xf borderId="0" fillId="13" fontId="6" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0"/>
+    <xf borderId="3" fillId="14" fontId="0" numFmtId="0"/>
+    <xf borderId="0" fillId="9" fontId="6" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="11" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="12" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf borderId="4" fillId="0" fontId="13" numFmtId="0"/>
+    <xf borderId="4" fillId="0" fontId="14" numFmtId="0"/>
+    <xf borderId="0" fillId="16" fontId="6" numFmtId="0"/>
+    <xf borderId="5" fillId="0" fontId="10" numFmtId="0"/>
+    <xf borderId="0" fillId="6" fontId="6" numFmtId="0"/>
+    <xf borderId="6" fillId="18" fontId="15" numFmtId="0"/>
+    <xf borderId="2" fillId="18" fontId="16" numFmtId="0"/>
+    <xf borderId="7" fillId="20" fontId="17" numFmtId="0"/>
+    <xf borderId="0" fillId="21" fontId="4" numFmtId="0"/>
+    <xf borderId="0" fillId="22" fontId="6" numFmtId="0"/>
+    <xf borderId="8" fillId="0" fontId="18" numFmtId="0"/>
+    <xf borderId="9" fillId="0" fontId="19" numFmtId="0"/>
+    <xf borderId="0" fillId="24" fontId="20" numFmtId="0"/>
+    <xf borderId="0" fillId="25" fontId="21" numFmtId="0"/>
+    <xf borderId="0" fillId="15" fontId="4" numFmtId="0"/>
+    <xf borderId="0" fillId="12" fontId="6" numFmtId="0"/>
+    <xf borderId="0" fillId="26" fontId="4" numFmtId="0"/>
+    <xf borderId="0" fillId="27" fontId="4" numFmtId="0"/>
+    <xf borderId="0" fillId="3" fontId="4" numFmtId="0"/>
+    <xf borderId="0" fillId="28" fontId="4" numFmtId="0"/>
+    <xf borderId="0" fillId="17" fontId="6" numFmtId="0"/>
+    <xf borderId="0" fillId="29" fontId="6" numFmtId="0"/>
+    <xf borderId="0" fillId="10" fontId="4" numFmtId="0"/>
+    <xf borderId="0" fillId="23" fontId="4" numFmtId="0"/>
+    <xf borderId="0" fillId="30" fontId="6" numFmtId="0"/>
+    <xf borderId="0" fillId="31" fontId="4" numFmtId="0"/>
+    <xf borderId="0" fillId="5" fontId="6" numFmtId="0"/>
+    <xf borderId="0" fillId="19" fontId="6" numFmtId="0"/>
+    <xf borderId="0" fillId="2" fontId="4" numFmtId="0"/>
+    <xf borderId="0" fillId="32" fontId="6" numFmtId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="7">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
+    <xf applyAlignment="1" applyProtection="1" borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="0" locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
+    <xf applyAlignment="1" applyProtection="1" borderId="1" fillId="0" fontId="0" numFmtId="4" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="0" locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
+    <xf applyAlignment="1" applyProtection="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="0" locked="0"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
+    <xf applyAlignment="1" applyProtection="1" borderId="1" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="0" locked="0"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
+    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="0" locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-  </cellStyleXfs>
-  <cellXfs count="6">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="49">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle builtinId="0" name="常规" xfId="0"/>
+    <cellStyle builtinId="7" name="货币[0]" xfId="1"/>
+    <cellStyle builtinId="38" name="20% - 强调文字颜色 3" xfId="2"/>
+    <cellStyle builtinId="20" name="输入" xfId="3"/>
+    <cellStyle builtinId="4" name="货币" xfId="4"/>
+    <cellStyle builtinId="6" name="千位分隔[0]" xfId="5"/>
+    <cellStyle builtinId="39" name="40% - 强调文字颜色 3" xfId="6"/>
+    <cellStyle builtinId="27" name="差" xfId="7"/>
+    <cellStyle builtinId="3" name="千位分隔" xfId="8"/>
+    <cellStyle builtinId="40" name="60% - 强调文字颜色 3" xfId="9"/>
+    <cellStyle builtinId="8" name="超链接" xfId="10"/>
+    <cellStyle builtinId="5" name="百分比" xfId="11"/>
+    <cellStyle builtinId="9" name="已访问的超链接" xfId="12"/>
+    <cellStyle builtinId="10" name="注释" xfId="13"/>
+    <cellStyle builtinId="36" name="60% - 强调文字颜色 2" xfId="14"/>
+    <cellStyle builtinId="19" name="标题 4" xfId="15"/>
+    <cellStyle builtinId="11" name="警告文本" xfId="16"/>
+    <cellStyle builtinId="15" name="标题" xfId="17"/>
+    <cellStyle builtinId="53" name="解释性文本" xfId="18"/>
+    <cellStyle builtinId="16" name="标题 1" xfId="19"/>
+    <cellStyle builtinId="17" name="标题 2" xfId="20"/>
+    <cellStyle builtinId="32" name="60% - 强调文字颜色 1" xfId="21"/>
+    <cellStyle builtinId="18" name="标题 3" xfId="22"/>
+    <cellStyle builtinId="44" name="60% - 强调文字颜色 4" xfId="23"/>
+    <cellStyle builtinId="21" name="输出" xfId="24"/>
+    <cellStyle builtinId="22" name="计算" xfId="25"/>
+    <cellStyle builtinId="23" name="检查单元格" xfId="26"/>
+    <cellStyle builtinId="50" name="20% - 强调文字颜色 6" xfId="27"/>
+    <cellStyle builtinId="33" name="强调文字颜色 2" xfId="28"/>
+    <cellStyle builtinId="24" name="链接单元格" xfId="29"/>
+    <cellStyle builtinId="25" name="汇总" xfId="30"/>
+    <cellStyle builtinId="26" name="好" xfId="31"/>
+    <cellStyle builtinId="28" name="适中" xfId="32"/>
+    <cellStyle builtinId="46" name="20% - 强调文字颜色 5" xfId="33"/>
+    <cellStyle builtinId="29" name="强调文字颜色 1" xfId="34"/>
+    <cellStyle builtinId="30" name="20% - 强调文字颜色 1" xfId="35"/>
+    <cellStyle builtinId="31" name="40% - 强调文字颜色 1" xfId="36"/>
+    <cellStyle builtinId="34" name="20% - 强调文字颜色 2" xfId="37"/>
+    <cellStyle builtinId="35" name="40% - 强调文字颜色 2" xfId="38"/>
+    <cellStyle builtinId="37" name="强调文字颜色 3" xfId="39"/>
+    <cellStyle builtinId="41" name="强调文字颜色 4" xfId="40"/>
+    <cellStyle builtinId="42" name="20% - 强调文字颜色 4" xfId="41"/>
+    <cellStyle builtinId="43" name="40% - 强调文字颜色 4" xfId="42"/>
+    <cellStyle builtinId="45" name="强调文字颜色 5" xfId="43"/>
+    <cellStyle builtinId="47" name="40% - 强调文字颜色 5" xfId="44"/>
+    <cellStyle builtinId="48" name="60% - 强调文字颜色 5" xfId="45"/>
+    <cellStyle builtinId="49" name="强调文字颜色 6" xfId="46"/>
+    <cellStyle builtinId="51" name="40% - 强调文字颜色 6" xfId="47"/>
+    <cellStyle builtinId="52" name="60% - 强调文字颜色 6" xfId="48"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
@@ -1192,25 +1110,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="5.125" customWidth="1"/>
-    <col min="2" max="2" width="10.875" customWidth="1"/>
-    <col min="3" max="3" width="12.625" customWidth="1"/>
-    <col min="4" max="4" width="9.375" customWidth="1"/>
-    <col min="5" max="5" width="21.5" customWidth="1"/>
-    <col min="6" max="6" width="17.125" customWidth="1"/>
-    <col min="7" max="7" width="9.375" customWidth="1"/>
-    <col min="8" max="8" width="12.625" customWidth="1"/>
-    <col min="9" max="9" width="5.125" customWidth="1"/>
+    <col customWidth="1" max="1" min="1" style="6" width="5.125"/>
+    <col customWidth="1" max="2" min="2" style="6" width="10.875"/>
+    <col customWidth="1" max="3" min="3" style="6" width="12.625"/>
+    <col customWidth="1" max="4" min="4" style="6" width="9.375"/>
+    <col customWidth="1" max="5" min="5" style="6" width="21.5"/>
+    <col customWidth="1" max="6" min="6" style="6" width="17.125"/>
+    <col customWidth="1" max="7" min="7" style="6" width="9.375"/>
+    <col customWidth="1" max="8" min="8" style="6" width="12.625"/>
+    <col customWidth="1" max="9" min="9" style="6" width="5.125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -1243,7 +1164,7 @@
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="1">
+      <c r="A2" s="1" t="n">
         <v>181</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -1252,7 +1173,7 @@
       <c r="C2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="1" t="n">
         <v>600</v>
       </c>
       <c r="E2" s="1" t="s">
@@ -1261,16 +1182,16 @@
       <c r="F2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="1">
+      <c r="G2" s="1" t="n">
         <v>600</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="1"/>
+      <c r="I2" s="1" t="n"/>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="1">
+      <c r="A3" s="1" t="n">
         <v>182</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -1279,7 +1200,7 @@
       <c r="C3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="2" t="n">
         <v>1342.7</v>
       </c>
       <c r="E3" s="1" t="s">
@@ -1288,16 +1209,16 @@
       <c r="F3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="2" t="n">
         <v>1342.7</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="1"/>
+      <c r="I3" s="1" t="n"/>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="1">
+      <c r="A4" s="1" t="n">
         <v>183</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -1306,7 +1227,7 @@
       <c r="C4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="1" t="n">
         <v>600</v>
       </c>
       <c r="E4" s="1" t="s">
@@ -1315,16 +1236,16 @@
       <c r="F4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4" s="1" t="n">
         <v>600</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="1"/>
+      <c r="I4" s="1" t="n"/>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="1">
+      <c r="A5" s="1" t="n">
         <v>184</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -1333,7 +1254,7 @@
       <c r="C5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="2" t="n">
         <v>1250.2</v>
       </c>
       <c r="E5" s="1" t="s">
@@ -1342,16 +1263,16 @@
       <c r="F5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="2" t="n">
         <v>1250.2</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="1"/>
+      <c r="I5" s="1" t="n"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="1">
+      <c r="A6" s="1" t="n">
         <v>185</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -1360,7 +1281,7 @@
       <c r="C6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="1" t="n">
         <v>697.7</v>
       </c>
       <c r="E6" s="1" t="s">
@@ -1369,16 +1290,16 @@
       <c r="F6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6" s="1" t="n">
         <v>697.7</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="1"/>
+      <c r="I6" s="1" t="n"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="1">
+      <c r="A7" s="1" t="n">
         <v>186</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -1387,7 +1308,7 @@
       <c r="C7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="2" t="n">
         <v>1523.3</v>
       </c>
       <c r="E7" s="1" t="s">
@@ -1396,16 +1317,16 @@
       <c r="F7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="2" t="n">
         <v>1523.3</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I7" s="1"/>
+      <c r="I7" s="1" t="n"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="1">
+      <c r="A8" s="1" t="n">
         <v>187</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -1414,7 +1335,7 @@
       <c r="C8" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="2" t="n">
         <v>1178.9</v>
       </c>
       <c r="E8" s="1" t="s">
@@ -1423,16 +1344,16 @@
       <c r="F8" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8" s="2" t="n">
         <v>1178.9</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I8" s="1"/>
+      <c r="I8" s="1" t="n"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="1">
+      <c r="A9" s="1" t="n">
         <v>188</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -1441,7 +1362,7 @@
       <c r="C9" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="2" t="n">
         <v>1600</v>
       </c>
       <c r="E9" s="1" t="s">
@@ -1450,16 +1371,16 @@
       <c r="F9" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G9" s="2" t="n">
         <v>1600</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I9" s="1"/>
+      <c r="I9" s="1" t="n"/>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="1">
+      <c r="A10" s="1" t="n">
         <v>189</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -1468,7 +1389,7 @@
       <c r="C10" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="2" t="n">
         <v>1600</v>
       </c>
       <c r="E10" s="1" t="s">
@@ -1477,16 +1398,16 @@
       <c r="F10" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G10" s="2" t="n">
         <v>1600</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I10" s="1"/>
+      <c r="I10" s="1" t="n"/>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="1">
+      <c r="A11" s="1" t="n">
         <v>190</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -1495,7 +1416,7 @@
       <c r="C11" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="2" t="n">
         <v>1527.7</v>
       </c>
       <c r="E11" s="1" t="s">
@@ -1504,16 +1425,16 @@
       <c r="F11" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G11" s="2">
+      <c r="G11" s="2" t="n">
         <v>1527.7</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I11" s="1"/>
+      <c r="I11" s="1" t="n"/>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="1">
+      <c r="A12" s="1" t="n">
         <v>191</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -1522,7 +1443,7 @@
       <c r="C12" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="2" t="n">
         <v>1378.7</v>
       </c>
       <c r="E12" s="1" t="s">
@@ -1531,16 +1452,16 @@
       <c r="F12" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="G12" s="2">
+      <c r="G12" s="2" t="n">
         <v>1378.7</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I12" s="1"/>
+      <c r="I12" s="1" t="n"/>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="1">
+      <c r="A13" s="1" t="n">
         <v>192</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -1549,7 +1470,7 @@
       <c r="C13" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="2" t="n">
         <v>1716.5</v>
       </c>
       <c r="E13" s="1" t="s">
@@ -1558,16 +1479,16 @@
       <c r="F13" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="G13" s="2">
+      <c r="G13" s="2" t="n">
         <v>1716.5</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I13" s="1"/>
+      <c r="I13" s="1" t="n"/>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="1">
+      <c r="A14" s="1" t="n">
         <v>193</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -1576,7 +1497,7 @@
       <c r="C14" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="2" t="n">
         <v>1600</v>
       </c>
       <c r="E14" s="1" t="s">
@@ -1585,16 +1506,16 @@
       <c r="F14" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G14" s="2">
+      <c r="G14" s="2" t="n">
         <v>1600</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I14" s="1"/>
+      <c r="I14" s="1" t="n"/>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="1">
+      <c r="A15" s="1" t="n">
         <v>194</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -1603,7 +1524,7 @@
       <c r="C15" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="2" t="n">
         <v>2050.7</v>
       </c>
       <c r="E15" s="1" t="s">
@@ -1612,16 +1533,16 @@
       <c r="F15" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="G15" s="2">
+      <c r="G15" s="2" t="n">
         <v>2050.7</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I15" s="1"/>
+      <c r="I15" s="1" t="n"/>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="1">
+      <c r="A16" s="1" t="n">
         <v>195</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -1630,7 +1551,7 @@
       <c r="C16" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16" s="2" t="n">
         <v>2348.3</v>
       </c>
       <c r="E16" s="1" t="s">
@@ -1639,16 +1560,16 @@
       <c r="F16" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="G16" s="2">
+      <c r="G16" s="2" t="n">
         <v>2348.3</v>
       </c>
       <c r="H16" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I16" s="1"/>
+      <c r="I16" s="1" t="n"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="1">
+      <c r="A17" s="1" t="n">
         <v>196</v>
       </c>
       <c r="B17" s="1" t="s">
@@ -1657,7 +1578,7 @@
       <c r="C17" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D17" s="2" t="n">
         <v>3661.9</v>
       </c>
       <c r="E17" s="1" t="s">
@@ -1666,16 +1587,16 @@
       <c r="F17" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="G17" s="2">
+      <c r="G17" s="2" t="n">
         <v>3661.9</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I17" s="1"/>
+      <c r="I17" s="1" t="n"/>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="1">
+      <c r="A18" s="1" t="n">
         <v>197</v>
       </c>
       <c r="B18" s="1" t="s">
@@ -1684,7 +1605,7 @@
       <c r="C18" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D18" s="2" t="n">
         <v>1600</v>
       </c>
       <c r="E18" s="1" t="s">
@@ -1693,16 +1614,16 @@
       <c r="F18" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="G18" s="2">
+      <c r="G18" s="2" t="n">
         <v>1600</v>
       </c>
       <c r="H18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I18" s="1"/>
+      <c r="I18" s="1" t="n"/>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="1">
+      <c r="A19" s="1" t="n">
         <v>198</v>
       </c>
       <c r="B19" s="1" t="s">
@@ -1711,7 +1632,7 @@
       <c r="C19" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D19" s="2">
+      <c r="D19" s="2" t="n">
         <v>2336.1</v>
       </c>
       <c r="E19" s="1" t="s">
@@ -1720,16 +1641,16 @@
       <c r="F19" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="G19" s="2">
+      <c r="G19" s="2" t="n">
         <v>2336.1</v>
       </c>
       <c r="H19" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I19" s="1"/>
+      <c r="I19" s="1" t="n"/>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="1">
+      <c r="A20" s="1" t="n">
         <v>199</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -1738,7 +1659,7 @@
       <c r="C20" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D20" s="1">
+      <c r="D20" s="1" t="n">
         <v>600</v>
       </c>
       <c r="E20" s="1" t="s">
@@ -1747,16 +1668,16 @@
       <c r="F20" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="G20" s="1">
+      <c r="G20" s="1" t="n">
         <v>600</v>
       </c>
       <c r="H20" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I20" s="1"/>
+      <c r="I20" s="1" t="n"/>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="1">
+      <c r="A21" s="1" t="n">
         <v>200</v>
       </c>
       <c r="B21" s="1" t="s">
@@ -1765,7 +1686,7 @@
       <c r="C21" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D21" s="2">
+      <c r="D21" s="2" t="n">
         <v>1846.2</v>
       </c>
       <c r="E21" s="1" t="s">
@@ -1774,175 +1695,306 @@
       <c r="F21" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="G21" s="2">
+      <c r="G21" s="2" t="n">
         <v>1846.2</v>
       </c>
       <c r="H21" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I21" s="1"/>
+      <c r="I21" s="1" t="n"/>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="1">
+      <c r="A22" s="1" t="n">
         <v>201</v>
       </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
+      <c r="B22" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I22" s="1" t="n"/>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="1">
+      <c r="A23" s="1" t="n">
         <v>202</v>
       </c>
-      <c r="B23" s="4"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
+      <c r="B23" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I23" s="1" t="n"/>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="1">
+      <c r="A24" s="1" t="n">
         <v>203</v>
       </c>
-      <c r="B24" s="4"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
+      <c r="B24" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I24" s="1" t="n"/>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="1">
+      <c r="A25" s="1" t="n">
         <v>204</v>
       </c>
-      <c r="B25" s="3"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
+      <c r="B25" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I25" s="1" t="n"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="1">
+      <c r="A26" s="1" t="n">
         <v>205</v>
       </c>
-      <c r="B26" s="4"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
+      <c r="B26" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I26" s="1" t="n"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="1">
+      <c r="A27" s="1" t="n">
         <v>206</v>
       </c>
-      <c r="B27" s="4"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
+      <c r="B27" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I27" s="1" t="n"/>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="1">
+      <c r="A28" s="1" t="n">
         <v>207</v>
       </c>
-      <c r="B28" s="3"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
+      <c r="B28" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I28" s="1" t="n"/>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="1">
+      <c r="A29" s="1" t="n">
         <v>208</v>
       </c>
-      <c r="B29" s="4"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
+      <c r="B29" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I29" s="1" t="n"/>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="1">
+      <c r="A30" s="1" t="n">
         <v>209</v>
       </c>
-      <c r="B30" s="4"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
+      <c r="B30" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I30" s="1" t="n"/>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="1">
+      <c r="A31" s="1" t="n">
         <v>210</v>
       </c>
-      <c r="B31" s="3"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
+      <c r="B31" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I31" s="1" t="n"/>
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
+        <v>70</v>
+      </c>
+      <c r="B32" s="1" t="n"/>
+      <c r="C32" s="1" t="n"/>
+      <c r="D32" s="1" t="n"/>
+      <c r="E32" s="1" t="n"/>
+      <c r="F32" s="1" t="n"/>
+      <c r="G32" s="1" t="n"/>
+      <c r="H32" s="1" t="n"/>
+      <c r="I32" s="1" t="n"/>
     </row>
     <row r="33" spans="1:9">
       <c r="A33" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="B33" s="5"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="5"/>
-      <c r="H33" s="5"/>
-      <c r="I33" s="5"/>
+        <v>71</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A33:I33"/>
   </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <pageMargins bottom="1" footer="0.511805555555556" header="0.511805555555556" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/openpyxl_test/test.xlsx
+++ b/openpyxl_test/test.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="98">
   <si>
     <t>序号</t>
   </si>
@@ -211,19 +211,97 @@
     <t xml:space="preserve">张利红母女	</t>
   </si>
   <si>
-    <t>sdfsdf</t>
-  </si>
-  <si>
     <t xml:space="preserve">周姗姗	</t>
   </si>
   <si>
     <t xml:space="preserve">2017/02/06 	</t>
   </si>
   <si>
-    <t>1,600.00</t>
-  </si>
-  <si>
     <t xml:space="preserve">6217995030009102086	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">宋丽鸽	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">张洋洋	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6217995030002863692	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">刘趁趁	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">王石磊	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6226500005548635	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">许雄妹	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">尚雅雅	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6210985030003807950	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">崔晓涵	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">庞中立	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6236682550000795073	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">袁嘉艺	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">宋亚军	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6217995040001650966	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">杨晓民	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">陈小明	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">623059113500753371	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">马闪闪	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">张跃芬	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6210812550000002007	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">方新梅	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">赵志奇	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">623059113301844239	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">孙树芳	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">白永卡	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6227002558360488678	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">祝俊涛	</t>
   </si>
   <si>
     <t>合计</t>
@@ -237,10 +315,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ " numFmtId="164"/>
-    <numFmt formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ " numFmtId="165"/>
-    <numFmt formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ " numFmtId="166"/>
-    <numFmt formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ " numFmtId="167"/>
+    <numFmt formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ " numFmtId="164"/>
+    <numFmt formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ " numFmtId="165"/>
+    <numFmt formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ " numFmtId="166"/>
+    <numFmt formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ " numFmtId="167"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -259,6 +337,88 @@
       <name val="Arial"/>
       <charset val="134"/>
       <sz val="10"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color theme="0"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="13"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="18"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <name val="宋体"/>
@@ -270,73 +430,6 @@
     </font>
     <font>
       <name val="宋体"/>
-      <charset val="0"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF9C0006"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color theme="0"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF800080"/>
-      <sz val="11"/>
-      <u val="single"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF3F3F76"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF0000FF"/>
-      <sz val="11"/>
-      <u val="single"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FFFF0000"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="18"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
       <charset val="134"/>
       <b val="1"/>
       <color theme="3"/>
@@ -345,10 +438,24 @@
     </font>
     <font>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
       <b val="1"/>
-      <color theme="3"/>
-      <sz val="13"/>
+      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -371,39 +478,10 @@
       <name val="宋体"/>
       <charset val="0"/>
       <b val="1"/>
-      <color rgb="FFFFFFFF"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF006100"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF9C6500"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -414,187 +492,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -623,17 +701,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -653,11 +725,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -667,6 +754,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -686,30 +788,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -723,59 +801,60 @@
   </borders>
   <cellStyleXfs count="49">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="165"/>
+    <xf borderId="0" fillId="4" fontId="3" numFmtId="0"/>
+    <xf borderId="4" fillId="8" fontId="7" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="164"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="167"/>
+    <xf borderId="0" fillId="2" fontId="3" numFmtId="0"/>
+    <xf borderId="0" fillId="9" fontId="8" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="166"/>
-    <xf borderId="0" fillId="8" fontId="4" numFmtId="0"/>
-    <xf borderId="2" fillId="11" fontId="8" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="167"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="165"/>
-    <xf borderId="0" fillId="7" fontId="4" numFmtId="0"/>
-    <xf borderId="0" fillId="4" fontId="5" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="164"/>
-    <xf borderId="0" fillId="13" fontId="6" numFmtId="0"/>
+    <xf borderId="0" fillId="3" fontId="4" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="9" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0"/>
-    <xf borderId="3" fillId="14" fontId="0" numFmtId="0"/>
-    <xf borderId="0" fillId="9" fontId="6" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="10" numFmtId="0"/>
+    <xf borderId="3" fillId="7" fontId="0" numFmtId="0"/>
+    <xf borderId="0" fillId="13" fontId="4" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="11" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="12" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
-    <xf borderId="4" fillId="0" fontId="13" numFmtId="0"/>
-    <xf borderId="4" fillId="0" fontId="14" numFmtId="0"/>
-    <xf borderId="0" fillId="16" fontId="6" numFmtId="0"/>
-    <xf borderId="5" fillId="0" fontId="10" numFmtId="0"/>
-    <xf borderId="0" fillId="6" fontId="6" numFmtId="0"/>
-    <xf borderId="6" fillId="18" fontId="15" numFmtId="0"/>
-    <xf borderId="2" fillId="18" fontId="16" numFmtId="0"/>
-    <xf borderId="7" fillId="20" fontId="17" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="13" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="14" numFmtId="0"/>
+    <xf borderId="2" fillId="0" fontId="15" numFmtId="0"/>
+    <xf borderId="2" fillId="0" fontId="6" numFmtId="0"/>
+    <xf borderId="0" fillId="17" fontId="4" numFmtId="0"/>
+    <xf borderId="6" fillId="0" fontId="11" numFmtId="0"/>
+    <xf borderId="0" fillId="20" fontId="4" numFmtId="0"/>
+    <xf borderId="8" fillId="23" fontId="19" numFmtId="0"/>
+    <xf borderId="4" fillId="23" fontId="20" numFmtId="0"/>
+    <xf borderId="7" fillId="22" fontId="18" numFmtId="0"/>
+    <xf borderId="0" fillId="24" fontId="3" numFmtId="0"/>
+    <xf borderId="0" fillId="16" fontId="4" numFmtId="0"/>
+    <xf borderId="5" fillId="0" fontId="17" numFmtId="0"/>
+    <xf borderId="9" fillId="0" fontId="21" numFmtId="0"/>
+    <xf borderId="0" fillId="19" fontId="16" numFmtId="0"/>
+    <xf borderId="0" fillId="6" fontId="5" numFmtId="0"/>
+    <xf borderId="0" fillId="12" fontId="3" numFmtId="0"/>
+    <xf borderId="0" fillId="18" fontId="4" numFmtId="0"/>
+    <xf borderId="0" fillId="25" fontId="3" numFmtId="0"/>
+    <xf borderId="0" fillId="26" fontId="3" numFmtId="0"/>
+    <xf borderId="0" fillId="27" fontId="3" numFmtId="0"/>
+    <xf borderId="0" fillId="28" fontId="3" numFmtId="0"/>
+    <xf borderId="0" fillId="10" fontId="4" numFmtId="0"/>
+    <xf borderId="0" fillId="29" fontId="4" numFmtId="0"/>
+    <xf borderId="0" fillId="30" fontId="3" numFmtId="0"/>
+    <xf borderId="0" fillId="15" fontId="3" numFmtId="0"/>
+    <xf borderId="0" fillId="14" fontId="4" numFmtId="0"/>
+    <xf borderId="0" fillId="11" fontId="3" numFmtId="0"/>
+    <xf borderId="0" fillId="31" fontId="4" numFmtId="0"/>
+    <xf borderId="0" fillId="5" fontId="4" numFmtId="0"/>
+    <xf borderId="0" fillId="32" fontId="3" numFmtId="0"/>
     <xf borderId="0" fillId="21" fontId="4" numFmtId="0"/>
-    <xf borderId="0" fillId="22" fontId="6" numFmtId="0"/>
-    <xf borderId="8" fillId="0" fontId="18" numFmtId="0"/>
-    <xf borderId="9" fillId="0" fontId="19" numFmtId="0"/>
-    <xf borderId="0" fillId="24" fontId="20" numFmtId="0"/>
-    <xf borderId="0" fillId="25" fontId="21" numFmtId="0"/>
-    <xf borderId="0" fillId="15" fontId="4" numFmtId="0"/>
-    <xf borderId="0" fillId="12" fontId="6" numFmtId="0"/>
-    <xf borderId="0" fillId="26" fontId="4" numFmtId="0"/>
-    <xf borderId="0" fillId="27" fontId="4" numFmtId="0"/>
-    <xf borderId="0" fillId="3" fontId="4" numFmtId="0"/>
-    <xf borderId="0" fillId="28" fontId="4" numFmtId="0"/>
-    <xf borderId="0" fillId="17" fontId="6" numFmtId="0"/>
-    <xf borderId="0" fillId="29" fontId="6" numFmtId="0"/>
-    <xf borderId="0" fillId="10" fontId="4" numFmtId="0"/>
-    <xf borderId="0" fillId="23" fontId="4" numFmtId="0"/>
-    <xf borderId="0" fillId="30" fontId="6" numFmtId="0"/>
-    <xf borderId="0" fillId="31" fontId="4" numFmtId="0"/>
-    <xf borderId="0" fillId="5" fontId="6" numFmtId="0"/>
-    <xf borderId="0" fillId="19" fontId="6" numFmtId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="0"/>
-    <xf borderId="0" fillId="32" fontId="6" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="7">
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" applyProtection="1" borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="0" locked="0"/>
@@ -796,7 +875,6 @@
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="0" locked="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle builtinId="0" name="常规" xfId="0"/>
@@ -1105,7 +1183,6 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
@@ -1117,878 +1194,858 @@
   </sheetPr>
   <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22:B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="0"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="6" width="5.125"/>
-    <col customWidth="1" max="2" min="2" style="6" width="10.875"/>
-    <col customWidth="1" max="3" min="3" style="6" width="12.625"/>
-    <col customWidth="1" max="4" min="4" style="6" width="9.375"/>
-    <col customWidth="1" max="5" min="5" style="6" width="21.5"/>
-    <col customWidth="1" max="6" min="6" style="6" width="17.125"/>
-    <col customWidth="1" max="7" min="7" style="6" width="9.375"/>
-    <col customWidth="1" max="8" min="8" style="6" width="12.625"/>
-    <col customWidth="1" max="9" min="9" style="6" width="5.125"/>
+    <col customWidth="1" max="1" min="1" style="1" width="5.125"/>
+    <col customWidth="1" max="2" min="2" style="1" width="10.875"/>
+    <col customWidth="1" max="3" min="3" style="1" width="12.625"/>
+    <col customWidth="1" max="4" min="4" style="1" width="9.375"/>
+    <col customWidth="1" max="5" min="5" style="1" width="21.5"/>
+    <col customWidth="1" max="6" min="6" style="1" width="17.125"/>
+    <col customWidth="1" max="7" min="7" style="1" width="9.375"/>
+    <col customWidth="1" max="8" min="8" style="1" width="12.625"/>
+    <col customWidth="1" max="9" min="9" style="1" width="5.125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>181</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="1" t="n">
+      <c r="D2" s="2" t="n">
         <v>600</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="1" t="n">
+      <c r="G2" s="2" t="n">
         <v>600</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="1" t="n"/>
+      <c r="I2" s="2" t="n"/>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>182</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="2" t="n">
+      <c r="D3" s="3" t="n">
         <v>1342.7</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="2" t="n">
+      <c r="G3" s="3" t="n">
         <v>1342.7</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="1" t="n"/>
+      <c r="I3" s="2" t="n"/>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="1" t="n">
+      <c r="A4" s="2" t="n">
         <v>183</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="1" t="n">
+      <c r="D4" s="2" t="n">
         <v>600</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="1" t="n">
+      <c r="G4" s="2" t="n">
         <v>600</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="1" t="n"/>
+      <c r="I4" s="2" t="n"/>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="1" t="n">
+      <c r="A5" s="2" t="n">
         <v>184</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="2" t="n">
+      <c r="D5" s="3" t="n">
         <v>1250.2</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="2" t="n">
+      <c r="G5" s="3" t="n">
         <v>1250.2</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="H5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="1" t="n"/>
+      <c r="I5" s="2" t="n"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="1" t="n">
+      <c r="A6" s="2" t="n">
         <v>185</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="1" t="n">
+      <c r="D6" s="2" t="n">
         <v>697.7</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="1" t="n">
+      <c r="G6" s="2" t="n">
         <v>697.7</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="H6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="1" t="n"/>
+      <c r="I6" s="2" t="n"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="1" t="n">
+      <c r="A7" s="2" t="n">
         <v>186</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="2" t="n">
+      <c r="D7" s="3" t="n">
         <v>1523.3</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G7" s="2" t="n">
+      <c r="G7" s="3" t="n">
         <v>1523.3</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="H7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I7" s="1" t="n"/>
+      <c r="I7" s="2" t="n"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="1" t="n">
+      <c r="A8" s="2" t="n">
         <v>187</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="2" t="n">
+      <c r="D8" s="3" t="n">
         <v>1178.9</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F8" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G8" s="2" t="n">
+      <c r="G8" s="3" t="n">
         <v>1178.9</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="H8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I8" s="1" t="n"/>
+      <c r="I8" s="2" t="n"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="1" t="n">
+      <c r="A9" s="2" t="n">
         <v>188</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="2" t="n">
+      <c r="D9" s="3" t="n">
         <v>1600</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F9" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="G9" s="2" t="n">
+      <c r="G9" s="3" t="n">
         <v>1600</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="H9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I9" s="1" t="n"/>
+      <c r="I9" s="2" t="n"/>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="1" t="n">
+      <c r="A10" s="2" t="n">
         <v>189</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="2" t="n">
+      <c r="D10" s="3" t="n">
         <v>1600</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F10" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="G10" s="2" t="n">
+      <c r="G10" s="3" t="n">
         <v>1600</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="H10" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I10" s="1" t="n"/>
+      <c r="I10" s="2" t="n"/>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="1" t="n">
+      <c r="A11" s="2" t="n">
         <v>190</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="2" t="n">
+      <c r="D11" s="3" t="n">
         <v>1527.7</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F11" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="G11" s="2" t="n">
+      <c r="G11" s="3" t="n">
         <v>1527.7</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="H11" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I11" s="1" t="n"/>
+      <c r="I11" s="2" t="n"/>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="1" t="n">
+      <c r="A12" s="2" t="n">
         <v>191</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="2" t="n">
+      <c r="D12" s="3" t="n">
         <v>1378.7</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E12" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F12" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="G12" s="2" t="n">
+      <c r="G12" s="3" t="n">
         <v>1378.7</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="H12" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I12" s="1" t="n"/>
+      <c r="I12" s="2" t="n"/>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="1" t="n">
+      <c r="A13" s="2" t="n">
         <v>192</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="2" t="n">
+      <c r="D13" s="3" t="n">
         <v>1716.5</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E13" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="F13" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="G13" s="2" t="n">
+      <c r="G13" s="3" t="n">
         <v>1716.5</v>
       </c>
-      <c r="H13" s="1" t="s">
+      <c r="H13" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I13" s="1" t="n"/>
+      <c r="I13" s="2" t="n"/>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="1" t="n">
+      <c r="A14" s="2" t="n">
         <v>193</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="2" t="n">
+      <c r="D14" s="3" t="n">
         <v>1600</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E14" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="F14" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="G14" s="2" t="n">
+      <c r="G14" s="3" t="n">
         <v>1600</v>
       </c>
-      <c r="H14" s="1" t="s">
+      <c r="H14" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I14" s="1" t="n"/>
+      <c r="I14" s="2" t="n"/>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="1" t="n">
+      <c r="A15" s="2" t="n">
         <v>194</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="2" t="n">
+      <c r="D15" s="3" t="n">
         <v>2050.7</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E15" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="F15" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="G15" s="2" t="n">
+      <c r="G15" s="3" t="n">
         <v>2050.7</v>
       </c>
-      <c r="H15" s="1" t="s">
+      <c r="H15" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I15" s="1" t="n"/>
+      <c r="I15" s="2" t="n"/>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="1" t="n">
+      <c r="A16" s="2" t="n">
         <v>195</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D16" s="2" t="n">
+      <c r="D16" s="3" t="n">
         <v>2348.3</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="E16" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="F16" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="G16" s="2" t="n">
+      <c r="G16" s="3" t="n">
         <v>2348.3</v>
       </c>
-      <c r="H16" s="1" t="s">
+      <c r="H16" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I16" s="1" t="n"/>
+      <c r="I16" s="2" t="n"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="1" t="n">
+      <c r="A17" s="2" t="n">
         <v>196</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D17" s="2" t="n">
+      <c r="D17" s="3" t="n">
         <v>3661.9</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="E17" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="F17" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="G17" s="2" t="n">
+      <c r="G17" s="3" t="n">
         <v>3661.9</v>
       </c>
-      <c r="H17" s="1" t="s">
+      <c r="H17" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I17" s="1" t="n"/>
+      <c r="I17" s="2" t="n"/>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="1" t="n">
+      <c r="A18" s="2" t="n">
         <v>197</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D18" s="2" t="n">
+      <c r="D18" s="3" t="n">
         <v>1600</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="E18" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="F18" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="G18" s="2" t="n">
+      <c r="G18" s="3" t="n">
         <v>1600</v>
       </c>
-      <c r="H18" s="1" t="s">
+      <c r="H18" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I18" s="1" t="n"/>
+      <c r="I18" s="2" t="n"/>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="1" t="n">
+      <c r="A19" s="2" t="n">
         <v>198</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D19" s="2" t="n">
+      <c r="D19" s="3" t="n">
         <v>2336.1</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="E19" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="F19" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="G19" s="2" t="n">
+      <c r="G19" s="3" t="n">
         <v>2336.1</v>
       </c>
-      <c r="H19" s="1" t="s">
+      <c r="H19" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I19" s="1" t="n"/>
+      <c r="I19" s="2" t="n"/>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="1" t="n">
+      <c r="A20" s="2" t="n">
         <v>199</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D20" s="1" t="n">
+      <c r="D20" s="2" t="n">
         <v>600</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="E20" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="F20" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="G20" s="1" t="n">
+      <c r="G20" s="2" t="n">
         <v>600</v>
       </c>
-      <c r="H20" s="1" t="s">
+      <c r="H20" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I20" s="1" t="n"/>
+      <c r="I20" s="2" t="n"/>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="1" t="n">
+      <c r="A21" s="2" t="n">
         <v>200</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D21" s="2" t="n">
+      <c r="D21" s="3" t="n">
         <v>1846.2</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="E21" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="F21" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="G21" s="2" t="n">
+      <c r="G21" s="3" t="n">
         <v>1846.2</v>
       </c>
-      <c r="H21" s="1" t="s">
+      <c r="H21" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I21" s="1" t="n"/>
+      <c r="I21" s="2" t="n"/>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="1" t="n">
+      <c r="A22" s="2" t="n">
         <v>201</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="I22" s="1" t="n"/>
+      <c r="C22" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D22" s="3" t="n">
+        <v>1600</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G22" s="3" t="n">
+        <v>1351.4</v>
+      </c>
+      <c r="H22" s="2" t="n"/>
+      <c r="I22" s="2" t="n"/>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="1" t="n">
+      <c r="A23" s="2" t="n">
         <v>202</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="F23" s="1" t="s">
+      <c r="D23" s="3" t="n">
+        <v>1600</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G23" s="3" t="n">
+        <v>1600</v>
+      </c>
+      <c r="H23" s="2" t="n"/>
+      <c r="I23" s="2" t="n"/>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="2" t="n">
+        <v>203</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="G23" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="I23" s="1" t="n"/>
-    </row>
-    <row r="24" spans="1:9">
-      <c r="A24" s="1" t="n">
-        <v>203</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="I24" s="1" t="n"/>
+      <c r="D24" s="2" t="n">
+        <v>1600</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G24" s="2" t="n">
+        <v>600</v>
+      </c>
+      <c r="H24" s="2" t="n"/>
+      <c r="I24" s="2" t="n"/>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="1" t="n">
+      <c r="A25" s="2" t="n">
         <v>204</v>
       </c>
-      <c r="B25" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="I25" s="1" t="n"/>
+      <c r="B25" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D25" s="3" t="n">
+        <v>600</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G25" s="3" t="n">
+        <v>1600</v>
+      </c>
+      <c r="H25" s="2" t="n"/>
+      <c r="I25" s="2" t="n"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="1" t="n">
+      <c r="A26" s="2" t="n">
         <v>205</v>
       </c>
-      <c r="B26" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="I26" s="1" t="n"/>
+      <c r="B26" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D26" s="2" t="n">
+        <v>1600</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G26" s="2" t="n">
+        <v>1497.5</v>
+      </c>
+      <c r="H26" s="2" t="n"/>
+      <c r="I26" s="2" t="n"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="1" t="n">
+      <c r="A27" s="2" t="n">
         <v>206</v>
       </c>
-      <c r="B27" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="I27" s="1" t="n"/>
+      <c r="B27" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D27" s="2" t="n">
+        <v>1600</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G27" s="2" t="n">
+        <v>1600</v>
+      </c>
+      <c r="H27" s="2" t="n"/>
+      <c r="I27" s="2" t="n"/>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="1" t="n">
+      <c r="A28" s="2" t="n">
         <v>207</v>
       </c>
-      <c r="B28" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="I28" s="1" t="n"/>
+      <c r="B28" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D28" s="3" t="n">
+        <v>1371.8</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="G28" s="3" t="n">
+        <v>1045.2</v>
+      </c>
+      <c r="H28" s="2" t="n"/>
+      <c r="I28" s="2" t="n"/>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="1" t="n">
+      <c r="A29" s="2" t="n">
         <v>208</v>
       </c>
-      <c r="B29" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="I29" s="1" t="n"/>
+      <c r="B29" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D29" s="2" t="n">
+        <v>1752</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="G29" s="2" t="n">
+        <v>1900.6</v>
+      </c>
+      <c r="H29" s="2" t="n"/>
+      <c r="I29" s="2" t="n"/>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="1" t="n">
+      <c r="A30" s="2" t="n">
         <v>209</v>
       </c>
-      <c r="B30" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="I30" s="1" t="n"/>
+      <c r="B30" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D30" s="3" t="n">
+        <v>1600</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="G30" s="3" t="n">
+        <v>3192.5</v>
+      </c>
+      <c r="H30" s="2" t="n"/>
+      <c r="I30" s="2" t="n"/>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="1" t="n">
+      <c r="A31" s="2" t="n">
         <v>210</v>
       </c>
-      <c r="B31" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="I31" s="1" t="n"/>
+      <c r="B31" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D31" s="3" t="n">
+        <v>600</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="G31" s="3" t="n">
+        <v>600</v>
+      </c>
+      <c r="H31" s="2" t="n"/>
+      <c r="I31" s="2" t="n"/>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B32" s="1" t="n"/>
-      <c r="C32" s="1" t="n"/>
-      <c r="D32" s="1" t="n"/>
-      <c r="E32" s="1" t="n"/>
-      <c r="F32" s="1" t="n"/>
-      <c r="G32" s="1" t="n"/>
-      <c r="H32" s="1" t="n"/>
-      <c r="I32" s="1" t="n"/>
+      <c r="A32" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B32" s="2" t="n"/>
+      <c r="C32" s="2" t="n"/>
+      <c r="D32" s="2" t="n"/>
+      <c r="E32" s="2" t="n"/>
+      <c r="F32" s="2" t="n"/>
+      <c r="G32" s="2" t="n"/>
+      <c r="H32" s="2" t="n"/>
+      <c r="I32" s="2" t="n"/>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="5" t="s">
-        <v>71</v>
+      <c r="A33" s="6" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>

--- a/openpyxl_test/test.xlsx
+++ b/openpyxl_test/test.xlsx
@@ -3,10 +3,13 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="sheetTemplate" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="sheet" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="sheet1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="sheet2" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -14,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="196">
   <si>
     <t>序号</t>
   </si>
@@ -43,6 +46,12 @@
     <t>备注</t>
   </si>
   <si>
+    <t>合计</t>
+  </si>
+  <si>
+    <t>备注：合计一栏只填写补助金额与支付金额的合计数。支付金额为网银支付数</t>
+  </si>
+  <si>
     <t xml:space="preserve">张梦珂	</t>
   </si>
   <si>
@@ -223,91 +232,379 @@
     <t xml:space="preserve">宋丽鸽	</t>
   </si>
   <si>
+    <t xml:space="preserve">6217995030002863692	</t>
+  </si>
+  <si>
     <t xml:space="preserve">张洋洋	</t>
   </si>
   <si>
-    <t xml:space="preserve">6217995030002863692	</t>
+    <t xml:space="preserve">6226500005548635	</t>
   </si>
   <si>
     <t xml:space="preserve">刘趁趁	</t>
   </si>
   <si>
+    <t xml:space="preserve">6210985030003807950	</t>
+  </si>
+  <si>
     <t xml:space="preserve">王石磊	</t>
   </si>
   <si>
-    <t xml:space="preserve">6226500005548635	</t>
+    <t xml:space="preserve">6236682550000795073	</t>
   </si>
   <si>
     <t xml:space="preserve">许雄妹	</t>
   </si>
   <si>
+    <t xml:space="preserve">6217995040001650966	</t>
+  </si>
+  <si>
     <t xml:space="preserve">尚雅雅	</t>
   </si>
   <si>
-    <t xml:space="preserve">6210985030003807950	</t>
+    <t xml:space="preserve">623059113500753371	</t>
   </si>
   <si>
     <t xml:space="preserve">崔晓涵	</t>
   </si>
   <si>
+    <t xml:space="preserve">6210812550000002007	</t>
+  </si>
+  <si>
     <t xml:space="preserve">庞中立	</t>
   </si>
   <si>
-    <t xml:space="preserve">6236682550000795073	</t>
+    <t xml:space="preserve">623059113301844239	</t>
   </si>
   <si>
     <t xml:space="preserve">袁嘉艺	</t>
   </si>
   <si>
+    <t xml:space="preserve">6227002558360488678	</t>
+  </si>
+  <si>
     <t xml:space="preserve">宋亚军	</t>
   </si>
   <si>
-    <t xml:space="preserve">6217995040001650966	</t>
+    <t xml:space="preserve">6228482058891864171	</t>
   </si>
   <si>
     <t xml:space="preserve">杨晓民	</t>
   </si>
   <si>
+    <t xml:space="preserve">6228482051675099312	</t>
+  </si>
+  <si>
     <t xml:space="preserve">陈小明	</t>
   </si>
   <si>
-    <t xml:space="preserve">623059113500753371	</t>
+    <t xml:space="preserve">6222081708000108146	</t>
   </si>
   <si>
     <t xml:space="preserve">马闪闪	</t>
   </si>
   <si>
+    <t xml:space="preserve">6217995030002488466	</t>
+  </si>
+  <si>
     <t xml:space="preserve">张跃芬	</t>
   </si>
   <si>
-    <t xml:space="preserve">6210812550000002007	</t>
+    <t xml:space="preserve">622991113302110831	</t>
   </si>
   <si>
     <t xml:space="preserve">方新梅	</t>
   </si>
   <si>
+    <t xml:space="preserve">623059113301579900	</t>
+  </si>
+  <si>
     <t xml:space="preserve">赵志奇	</t>
   </si>
   <si>
-    <t xml:space="preserve">623059113301844239	</t>
+    <t xml:space="preserve">6228482059508238171	</t>
   </si>
   <si>
     <t xml:space="preserve">孙树芳	</t>
   </si>
   <si>
+    <t xml:space="preserve">6228482059522037070	</t>
+  </si>
+  <si>
     <t xml:space="preserve">白永卡	</t>
   </si>
   <si>
-    <t xml:space="preserve">6227002558360488678	</t>
+    <t xml:space="preserve">2017/02/07 	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6210955030000062928	</t>
   </si>
   <si>
     <t xml:space="preserve">祝俊涛	</t>
   </si>
   <si>
-    <t>合计</t>
-  </si>
-  <si>
-    <t>备注：合计一栏只填写补助金额与支付金额的合计数。支付金额为网银支付数</t>
+    <t xml:space="preserve">623059113300968278	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">徐小丽	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6236682550001575201	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">梁莹莹	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6217995030000965622	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">陆梦园	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6217995030005031727	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">杨洪荣	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6228482059510216678	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">李江涛	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">623059113301799854	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">王广朝	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">623059113301560710	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">范丽鸽	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017/02/08 	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6217995030002001277	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">李红丽	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6217858000068132940	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">马文龙	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6217995030003290598	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">王小贝	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6217995030006508202	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">闫兴龙	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6217995030002764494	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">贾兵兵	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6217995030008817551	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">吴亚雪	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6228482059010932378	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">汪春红	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6212261708001640603	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">马永霞	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6227002556480276387	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">王彩花	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6221805030000019885	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">田培杰	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">623059113301797361	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">魏子伟	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6210985030003411753	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">屈伟平	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">622991113301434901	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">贾校锐	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017/02/09 	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6217995030002885943	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">黄猛超	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6226227000495915	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">余俊红	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6217995030000153401	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">张彩英	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">623059113301431870	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">白俊文	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6228482059497956577	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">吴云龙	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6227002556360405320	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">郑媛媛	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6210812550000019662	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">柴凤飞	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6228482059503984977	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">邓晶晶	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6217002550002843049	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">胡海龙	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">623059113301844395	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">戚智慧	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">622991113301307990	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">胡世鹏	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017/02/10 	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6217995030008183780	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">张亚光	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6217858000038283682	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">李孟秋	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">623059113500220264	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">宋欢欢	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6217995030008540484	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">孙付计	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">623059113301775177	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">王景	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6226227000808497	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">韦俊芳 	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6217995030004490833	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">任志军	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6210812550002134543	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">刘艳鸽	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6217002550000268744	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">包创	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6236600015664758	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">赵鹤	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6228481208018358570	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">韩亚飞	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6217995030006193039	</t>
   </si>
 </sst>
 </file>
@@ -315,9 +612,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ " numFmtId="164"/>
+    <numFmt formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ " numFmtId="164"/>
     <numFmt formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ " numFmtId="165"/>
-    <numFmt formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ " numFmtId="166"/>
+    <numFmt formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ " numFmtId="166"/>
     <numFmt formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ " numFmtId="167"/>
   </numFmts>
   <fonts count="22">
@@ -355,29 +652,14 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
       <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="13"/>
       <scheme val="minor"/>
     </font>
     <font>
       <name val="宋体"/>
       <charset val="0"/>
       <color rgb="FF3F3F76"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF9C0006"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -438,24 +720,10 @@
     </font>
     <font>
       <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF006100"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <b val="1"/>
-      <color rgb="FFFFFFFF"/>
-      <sz val="11"/>
+      <color theme="3"/>
+      <sz val="13"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -478,7 +746,36 @@
       <name val="宋体"/>
       <charset val="0"/>
       <b val="1"/>
+      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
       <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF9C6500"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -489,6 +786,42 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -504,7 +837,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -516,163 +963,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -701,11 +998,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -725,26 +1028,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -754,6 +1042,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -773,17 +1076,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -802,53 +1099,53 @@
   <cellStyleXfs count="49">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="165"/>
-    <xf borderId="0" fillId="4" fontId="3" numFmtId="0"/>
-    <xf borderId="4" fillId="8" fontId="7" numFmtId="0"/>
+    <xf borderId="0" fillId="2" fontId="3" numFmtId="0"/>
+    <xf borderId="2" fillId="5" fontId="6" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="166"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="167"/>
+    <xf borderId="0" fillId="8" fontId="3" numFmtId="0"/>
+    <xf borderId="0" fillId="4" fontId="5" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="164"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="167"/>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0"/>
-    <xf borderId="0" fillId="9" fontId="8" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="166"/>
-    <xf borderId="0" fillId="3" fontId="4" numFmtId="0"/>
+    <xf borderId="0" fillId="9" fontId="4" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0"/>
+    <xf borderId="3" fillId="10" fontId="0" numFmtId="0"/>
+    <xf borderId="0" fillId="12" fontId="4" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="9" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="10" numFmtId="0"/>
-    <xf borderId="3" fillId="7" fontId="0" numFmtId="0"/>
-    <xf borderId="0" fillId="13" fontId="4" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="11" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="12" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="13" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="14" numFmtId="0"/>
-    <xf borderId="2" fillId="0" fontId="15" numFmtId="0"/>
-    <xf borderId="2" fillId="0" fontId="6" numFmtId="0"/>
-    <xf borderId="0" fillId="17" fontId="4" numFmtId="0"/>
-    <xf borderId="6" fillId="0" fontId="11" numFmtId="0"/>
-    <xf borderId="0" fillId="20" fontId="4" numFmtId="0"/>
-    <xf borderId="8" fillId="23" fontId="19" numFmtId="0"/>
-    <xf borderId="4" fillId="23" fontId="20" numFmtId="0"/>
-    <xf borderId="7" fillId="22" fontId="18" numFmtId="0"/>
-    <xf borderId="0" fillId="24" fontId="3" numFmtId="0"/>
+    <xf borderId="4" fillId="0" fontId="13" numFmtId="0"/>
+    <xf borderId="4" fillId="0" fontId="14" numFmtId="0"/>
+    <xf borderId="0" fillId="18" fontId="4" numFmtId="0"/>
+    <xf borderId="5" fillId="0" fontId="9" numFmtId="0"/>
+    <xf borderId="0" fillId="13" fontId="4" numFmtId="0"/>
+    <xf borderId="6" fillId="19" fontId="15" numFmtId="0"/>
+    <xf borderId="2" fillId="19" fontId="16" numFmtId="0"/>
+    <xf borderId="7" fillId="20" fontId="17" numFmtId="0"/>
+    <xf borderId="0" fillId="17" fontId="3" numFmtId="0"/>
+    <xf borderId="0" fillId="7" fontId="4" numFmtId="0"/>
+    <xf borderId="8" fillId="0" fontId="18" numFmtId="0"/>
+    <xf borderId="9" fillId="0" fontId="19" numFmtId="0"/>
+    <xf borderId="0" fillId="23" fontId="20" numFmtId="0"/>
+    <xf borderId="0" fillId="24" fontId="21" numFmtId="0"/>
+    <xf borderId="0" fillId="25" fontId="3" numFmtId="0"/>
+    <xf borderId="0" fillId="26" fontId="4" numFmtId="0"/>
+    <xf borderId="0" fillId="14" fontId="3" numFmtId="0"/>
+    <xf borderId="0" fillId="27" fontId="3" numFmtId="0"/>
+    <xf borderId="0" fillId="11" fontId="3" numFmtId="0"/>
+    <xf borderId="0" fillId="22" fontId="3" numFmtId="0"/>
+    <xf borderId="0" fillId="28" fontId="4" numFmtId="0"/>
     <xf borderId="0" fillId="16" fontId="4" numFmtId="0"/>
-    <xf borderId="5" fillId="0" fontId="17" numFmtId="0"/>
-    <xf borderId="9" fillId="0" fontId="21" numFmtId="0"/>
-    <xf borderId="0" fillId="19" fontId="16" numFmtId="0"/>
-    <xf borderId="0" fillId="6" fontId="5" numFmtId="0"/>
-    <xf borderId="0" fillId="12" fontId="3" numFmtId="0"/>
-    <xf borderId="0" fillId="18" fontId="4" numFmtId="0"/>
-    <xf borderId="0" fillId="25" fontId="3" numFmtId="0"/>
-    <xf borderId="0" fillId="26" fontId="3" numFmtId="0"/>
-    <xf borderId="0" fillId="27" fontId="3" numFmtId="0"/>
-    <xf borderId="0" fillId="28" fontId="3" numFmtId="0"/>
-    <xf borderId="0" fillId="10" fontId="4" numFmtId="0"/>
+    <xf borderId="0" fillId="6" fontId="3" numFmtId="0"/>
+    <xf borderId="0" fillId="15" fontId="3" numFmtId="0"/>
+    <xf borderId="0" fillId="3" fontId="4" numFmtId="0"/>
+    <xf borderId="0" fillId="21" fontId="3" numFmtId="0"/>
     <xf borderId="0" fillId="29" fontId="4" numFmtId="0"/>
-    <xf borderId="0" fillId="30" fontId="3" numFmtId="0"/>
-    <xf borderId="0" fillId="15" fontId="3" numFmtId="0"/>
-    <xf borderId="0" fillId="14" fontId="4" numFmtId="0"/>
-    <xf borderId="0" fillId="11" fontId="3" numFmtId="0"/>
-    <xf borderId="0" fillId="31" fontId="4" numFmtId="0"/>
-    <xf borderId="0" fillId="5" fontId="4" numFmtId="0"/>
-    <xf borderId="0" fillId="32" fontId="3" numFmtId="0"/>
-    <xf borderId="0" fillId="21" fontId="4" numFmtId="0"/>
+    <xf borderId="0" fillId="30" fontId="4" numFmtId="0"/>
+    <xf borderId="0" fillId="31" fontId="3" numFmtId="0"/>
+    <xf borderId="0" fillId="32" fontId="4" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="7">
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
@@ -1194,8 +1491,8 @@
   </sheetPr>
   <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22:B31"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="0"/>
@@ -1244,564 +1541,272 @@
       <c r="A2" s="2" t="n">
         <v>181</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="2" t="n">
-        <v>600</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="2" t="n">
-        <v>600</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="2" t="n"/>
+      <c r="D2" s="2" t="n"/>
+      <c r="E2" s="2" t="n"/>
+      <c r="F2" s="2" t="n"/>
+      <c r="G2" s="2" t="n"/>
+      <c r="H2" s="2" t="n"/>
       <c r="I2" s="2" t="n"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="2" t="n">
         <v>182</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="3" t="n">
-        <v>1342.7</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="3" t="n">
-        <v>1342.7</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="3" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="3" t="n"/>
+      <c r="H3" s="2" t="n"/>
       <c r="I3" s="2" t="n"/>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="2" t="n">
         <v>183</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="2" t="n">
-        <v>600</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" s="2" t="n">
-        <v>600</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="B4" s="2" t="n"/>
+      <c r="C4" s="2" t="n"/>
+      <c r="D4" s="2" t="n"/>
+      <c r="E4" s="2" t="n"/>
+      <c r="F4" s="2" t="n"/>
+      <c r="G4" s="2" t="n"/>
+      <c r="H4" s="2" t="n"/>
       <c r="I4" s="2" t="n"/>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="2" t="n">
         <v>184</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="3" t="n">
-        <v>1250.2</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" s="3" t="n">
-        <v>1250.2</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="B5" s="2" t="n"/>
+      <c r="C5" s="2" t="n"/>
+      <c r="D5" s="3" t="n"/>
+      <c r="E5" s="2" t="n"/>
+      <c r="F5" s="2" t="n"/>
+      <c r="G5" s="3" t="n"/>
+      <c r="H5" s="2" t="n"/>
       <c r="I5" s="2" t="n"/>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="2" t="n">
         <v>185</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="2" t="n">
-        <v>697.7</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G6" s="2" t="n">
-        <v>697.7</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="B6" s="2" t="n"/>
+      <c r="C6" s="2" t="n"/>
+      <c r="D6" s="2" t="n"/>
+      <c r="E6" s="2" t="n"/>
+      <c r="F6" s="2" t="n"/>
+      <c r="G6" s="2" t="n"/>
+      <c r="H6" s="2" t="n"/>
       <c r="I6" s="2" t="n"/>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="2" t="n">
         <v>186</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="3" t="n">
-        <v>1523.3</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G7" s="3" t="n">
-        <v>1523.3</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="B7" s="2" t="n"/>
+      <c r="C7" s="2" t="n"/>
+      <c r="D7" s="3" t="n"/>
+      <c r="E7" s="2" t="n"/>
+      <c r="F7" s="2" t="n"/>
+      <c r="G7" s="3" t="n"/>
+      <c r="H7" s="2" t="n"/>
       <c r="I7" s="2" t="n"/>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="2" t="n">
         <v>187</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" s="3" t="n">
-        <v>1178.9</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G8" s="3" t="n">
-        <v>1178.9</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="B8" s="2" t="n"/>
+      <c r="C8" s="2" t="n"/>
+      <c r="D8" s="3" t="n"/>
+      <c r="E8" s="2" t="n"/>
+      <c r="F8" s="2" t="n"/>
+      <c r="G8" s="3" t="n"/>
+      <c r="H8" s="2" t="n"/>
       <c r="I8" s="2" t="n"/>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="2" t="n">
         <v>188</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" s="3" t="n">
-        <v>1600</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G9" s="3" t="n">
-        <v>1600</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="B9" s="2" t="n"/>
+      <c r="C9" s="2" t="n"/>
+      <c r="D9" s="3" t="n"/>
+      <c r="E9" s="2" t="n"/>
+      <c r="F9" s="2" t="n"/>
+      <c r="G9" s="3" t="n"/>
+      <c r="H9" s="2" t="n"/>
       <c r="I9" s="2" t="n"/>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="2" t="n">
         <v>189</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" s="3" t="n">
-        <v>1600</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G10" s="3" t="n">
-        <v>1600</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="B10" s="2" t="n"/>
+      <c r="C10" s="2" t="n"/>
+      <c r="D10" s="3" t="n"/>
+      <c r="E10" s="2" t="n"/>
+      <c r="F10" s="2" t="n"/>
+      <c r="G10" s="3" t="n"/>
+      <c r="H10" s="2" t="n"/>
       <c r="I10" s="2" t="n"/>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="2" t="n">
         <v>190</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11" s="3" t="n">
-        <v>1527.7</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G11" s="3" t="n">
-        <v>1527.7</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="B11" s="2" t="n"/>
+      <c r="C11" s="2" t="n"/>
+      <c r="D11" s="3" t="n"/>
+      <c r="E11" s="2" t="n"/>
+      <c r="F11" s="2" t="n"/>
+      <c r="G11" s="3" t="n"/>
+      <c r="H11" s="2" t="n"/>
       <c r="I11" s="2" t="n"/>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="2" t="n">
         <v>191</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D12" s="3" t="n">
-        <v>1378.7</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G12" s="3" t="n">
-        <v>1378.7</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="B12" s="2" t="n"/>
+      <c r="C12" s="2" t="n"/>
+      <c r="D12" s="3" t="n"/>
+      <c r="E12" s="2" t="n"/>
+      <c r="F12" s="2" t="n"/>
+      <c r="G12" s="3" t="n"/>
+      <c r="H12" s="2" t="n"/>
       <c r="I12" s="2" t="n"/>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="2" t="n">
         <v>192</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" s="3" t="n">
-        <v>1716.5</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G13" s="3" t="n">
-        <v>1716.5</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="B13" s="2" t="n"/>
+      <c r="C13" s="2" t="n"/>
+      <c r="D13" s="3" t="n"/>
+      <c r="E13" s="2" t="n"/>
+      <c r="F13" s="2" t="n"/>
+      <c r="G13" s="3" t="n"/>
+      <c r="H13" s="2" t="n"/>
       <c r="I13" s="2" t="n"/>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="2" t="n">
         <v>193</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D14" s="3" t="n">
-        <v>1600</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="G14" s="3" t="n">
-        <v>1600</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="B14" s="2" t="n"/>
+      <c r="C14" s="2" t="n"/>
+      <c r="D14" s="3" t="n"/>
+      <c r="E14" s="2" t="n"/>
+      <c r="F14" s="2" t="n"/>
+      <c r="G14" s="3" t="n"/>
+      <c r="H14" s="2" t="n"/>
       <c r="I14" s="2" t="n"/>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="2" t="n">
         <v>194</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D15" s="3" t="n">
-        <v>2050.7</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G15" s="3" t="n">
-        <v>2050.7</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="B15" s="2" t="n"/>
+      <c r="C15" s="2" t="n"/>
+      <c r="D15" s="3" t="n"/>
+      <c r="E15" s="2" t="n"/>
+      <c r="F15" s="2" t="n"/>
+      <c r="G15" s="3" t="n"/>
+      <c r="H15" s="2" t="n"/>
       <c r="I15" s="2" t="n"/>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="2" t="n">
         <v>195</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D16" s="3" t="n">
-        <v>2348.3</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="G16" s="3" t="n">
-        <v>2348.3</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="B16" s="2" t="n"/>
+      <c r="C16" s="2" t="n"/>
+      <c r="D16" s="3" t="n"/>
+      <c r="E16" s="2" t="n"/>
+      <c r="F16" s="2" t="n"/>
+      <c r="G16" s="3" t="n"/>
+      <c r="H16" s="2" t="n"/>
       <c r="I16" s="2" t="n"/>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="2" t="n">
         <v>196</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D17" s="3" t="n">
-        <v>3661.9</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="G17" s="3" t="n">
-        <v>3661.9</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="B17" s="2" t="n"/>
+      <c r="C17" s="2" t="n"/>
+      <c r="D17" s="3" t="n"/>
+      <c r="E17" s="2" t="n"/>
+      <c r="F17" s="2" t="n"/>
+      <c r="G17" s="3" t="n"/>
+      <c r="H17" s="2" t="n"/>
       <c r="I17" s="2" t="n"/>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="2" t="n">
         <v>197</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D18" s="3" t="n">
-        <v>1600</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="G18" s="3" t="n">
-        <v>1600</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="B18" s="2" t="n"/>
+      <c r="C18" s="2" t="n"/>
+      <c r="D18" s="3" t="n"/>
+      <c r="E18" s="2" t="n"/>
+      <c r="F18" s="2" t="n"/>
+      <c r="G18" s="3" t="n"/>
+      <c r="H18" s="2" t="n"/>
       <c r="I18" s="2" t="n"/>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="2" t="n">
         <v>198</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D19" s="3" t="n">
-        <v>2336.1</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="G19" s="3" t="n">
-        <v>2336.1</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="B19" s="2" t="n"/>
+      <c r="C19" s="2" t="n"/>
+      <c r="D19" s="3" t="n"/>
+      <c r="E19" s="2" t="n"/>
+      <c r="F19" s="2" t="n"/>
+      <c r="G19" s="3" t="n"/>
+      <c r="H19" s="2" t="n"/>
       <c r="I19" s="2" t="n"/>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="2" t="n">
         <v>199</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D20" s="2" t="n">
-        <v>600</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="G20" s="2" t="n">
-        <v>600</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="B20" s="2" t="n"/>
+      <c r="C20" s="2" t="n"/>
+      <c r="D20" s="2" t="n"/>
+      <c r="E20" s="2" t="n"/>
+      <c r="F20" s="2" t="n"/>
+      <c r="G20" s="2" t="n"/>
+      <c r="H20" s="2" t="n"/>
       <c r="I20" s="2" t="n"/>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="2" t="n">
         <v>200</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D21" s="3" t="n">
-        <v>1846.2</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="G21" s="3" t="n">
-        <v>1846.2</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="B21" s="2" t="n"/>
+      <c r="C21" s="2" t="n"/>
+      <c r="D21" s="3" t="n"/>
+      <c r="E21" s="2" t="n"/>
+      <c r="F21" s="2" t="n"/>
+      <c r="G21" s="3" t="n"/>
+      <c r="H21" s="2" t="n"/>
       <c r="I21" s="2" t="n"/>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="2" t="n">
         <v>201</v>
       </c>
-      <c r="B22" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D22" s="3" t="n">
-        <v>1600</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="G22" s="3" t="n">
-        <v>1351.4</v>
-      </c>
+      <c r="B22" s="4" t="n"/>
+      <c r="C22" s="2" t="n"/>
+      <c r="D22" s="3" t="n"/>
+      <c r="E22" s="2" t="n"/>
+      <c r="F22" s="2" t="n"/>
+      <c r="G22" s="3" t="n"/>
       <c r="H22" s="2" t="n"/>
       <c r="I22" s="2" t="n"/>
     </row>
@@ -1809,24 +1814,12 @@
       <c r="A23" s="2" t="n">
         <v>202</v>
       </c>
-      <c r="B23" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D23" s="3" t="n">
-        <v>1600</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="G23" s="3" t="n">
-        <v>1600</v>
-      </c>
+      <c r="B23" s="5" t="n"/>
+      <c r="C23" s="2" t="n"/>
+      <c r="D23" s="3" t="n"/>
+      <c r="E23" s="2" t="n"/>
+      <c r="F23" s="2" t="n"/>
+      <c r="G23" s="3" t="n"/>
       <c r="H23" s="2" t="n"/>
       <c r="I23" s="2" t="n"/>
     </row>
@@ -1834,24 +1827,12 @@
       <c r="A24" s="2" t="n">
         <v>203</v>
       </c>
-      <c r="B24" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D24" s="2" t="n">
-        <v>1600</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="G24" s="2" t="n">
-        <v>600</v>
-      </c>
+      <c r="B24" s="5" t="n"/>
+      <c r="C24" s="2" t="n"/>
+      <c r="D24" s="2" t="n"/>
+      <c r="E24" s="2" t="n"/>
+      <c r="F24" s="2" t="n"/>
+      <c r="G24" s="2" t="n"/>
       <c r="H24" s="2" t="n"/>
       <c r="I24" s="2" t="n"/>
     </row>
@@ -1859,24 +1840,12 @@
       <c r="A25" s="2" t="n">
         <v>204</v>
       </c>
-      <c r="B25" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D25" s="3" t="n">
-        <v>600</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="G25" s="3" t="n">
-        <v>1600</v>
-      </c>
+      <c r="B25" s="4" t="n"/>
+      <c r="C25" s="2" t="n"/>
+      <c r="D25" s="3" t="n"/>
+      <c r="E25" s="2" t="n"/>
+      <c r="F25" s="2" t="n"/>
+      <c r="G25" s="3" t="n"/>
       <c r="H25" s="2" t="n"/>
       <c r="I25" s="2" t="n"/>
     </row>
@@ -1884,24 +1853,12 @@
       <c r="A26" s="2" t="n">
         <v>205</v>
       </c>
-      <c r="B26" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D26" s="2" t="n">
-        <v>1600</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="G26" s="2" t="n">
-        <v>1497.5</v>
-      </c>
+      <c r="B26" s="5" t="n"/>
+      <c r="C26" s="2" t="n"/>
+      <c r="D26" s="2" t="n"/>
+      <c r="E26" s="2" t="n"/>
+      <c r="F26" s="2" t="n"/>
+      <c r="G26" s="2" t="n"/>
       <c r="H26" s="2" t="n"/>
       <c r="I26" s="2" t="n"/>
     </row>
@@ -1909,24 +1866,12 @@
       <c r="A27" s="2" t="n">
         <v>206</v>
       </c>
-      <c r="B27" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D27" s="2" t="n">
-        <v>1600</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G27" s="2" t="n">
-        <v>1600</v>
-      </c>
+      <c r="B27" s="5" t="n"/>
+      <c r="C27" s="2" t="n"/>
+      <c r="D27" s="2" t="n"/>
+      <c r="E27" s="2" t="n"/>
+      <c r="F27" s="2" t="n"/>
+      <c r="G27" s="2" t="n"/>
       <c r="H27" s="2" t="n"/>
       <c r="I27" s="2" t="n"/>
     </row>
@@ -1934,24 +1879,12 @@
       <c r="A28" s="2" t="n">
         <v>207</v>
       </c>
-      <c r="B28" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D28" s="3" t="n">
-        <v>1371.8</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="G28" s="3" t="n">
-        <v>1045.2</v>
-      </c>
+      <c r="B28" s="4" t="n"/>
+      <c r="C28" s="2" t="n"/>
+      <c r="D28" s="3" t="n"/>
+      <c r="E28" s="2" t="n"/>
+      <c r="F28" s="2" t="n"/>
+      <c r="G28" s="3" t="n"/>
       <c r="H28" s="2" t="n"/>
       <c r="I28" s="2" t="n"/>
     </row>
@@ -1959,24 +1892,12 @@
       <c r="A29" s="2" t="n">
         <v>208</v>
       </c>
-      <c r="B29" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D29" s="2" t="n">
-        <v>1752</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="G29" s="2" t="n">
-        <v>1900.6</v>
-      </c>
+      <c r="B29" s="5" t="n"/>
+      <c r="C29" s="2" t="n"/>
+      <c r="D29" s="2" t="n"/>
+      <c r="E29" s="2" t="n"/>
+      <c r="F29" s="2" t="n"/>
+      <c r="G29" s="2" t="n"/>
       <c r="H29" s="2" t="n"/>
       <c r="I29" s="2" t="n"/>
     </row>
@@ -1984,24 +1905,12 @@
       <c r="A30" s="2" t="n">
         <v>209</v>
       </c>
-      <c r="B30" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D30" s="3" t="n">
-        <v>1600</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="G30" s="3" t="n">
-        <v>3192.5</v>
-      </c>
+      <c r="B30" s="5" t="n"/>
+      <c r="C30" s="2" t="n"/>
+      <c r="D30" s="3" t="n"/>
+      <c r="E30" s="2" t="n"/>
+      <c r="F30" s="2" t="n"/>
+      <c r="G30" s="3" t="n"/>
       <c r="H30" s="2" t="n"/>
       <c r="I30" s="2" t="n"/>
     </row>
@@ -2009,30 +1918,18 @@
       <c r="A31" s="2" t="n">
         <v>210</v>
       </c>
-      <c r="B31" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D31" s="3" t="n">
-        <v>600</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="G31" s="3" t="n">
-        <v>600</v>
-      </c>
+      <c r="B31" s="4" t="n"/>
+      <c r="C31" s="2" t="n"/>
+      <c r="D31" s="3" t="n"/>
+      <c r="E31" s="2" t="n"/>
+      <c r="F31" s="2" t="n"/>
+      <c r="G31" s="3" t="n"/>
       <c r="H31" s="2" t="n"/>
       <c r="I31" s="2" t="n"/>
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="2" t="s">
-        <v>96</v>
+        <v>9</v>
       </c>
       <c r="B32" s="2" t="n"/>
       <c r="C32" s="2" t="n"/>
@@ -2045,7 +1942,7 @@
     </row>
     <row r="33" spans="1:9">
       <c r="A33" s="6" t="s">
-        <v>97</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -2054,4 +1951,2438 @@
   </mergeCells>
   <pageMargins bottom="1" footer="0.511805555555556" header="0.511805555555556" left="0.75" right="0.75" top="1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22:G31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="0"/>
+  <cols>
+    <col customWidth="1" max="1" min="1" style="1" width="5.125"/>
+    <col customWidth="1" max="2" min="2" style="1" width="10.875"/>
+    <col customWidth="1" max="3" min="3" style="1" width="12.625"/>
+    <col customWidth="1" max="4" min="4" style="1" width="9.375"/>
+    <col customWidth="1" max="5" min="5" style="1" width="21.5"/>
+    <col customWidth="1" max="6" min="6" style="1" width="17.125"/>
+    <col customWidth="1" max="7" min="7" style="1" width="9.375"/>
+    <col customWidth="1" max="8" min="8" style="1" width="12.625"/>
+    <col customWidth="1" max="9" min="9" style="1" width="5.125"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="2" t="n">
+        <v>181</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>600</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="2" t="n">
+        <v>600</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="2" t="n"/>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="2" t="n">
+        <v>182</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="3" t="n">
+        <v>1342.7</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="3" t="n">
+        <v>1342.7</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" s="2" t="n"/>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="2" t="n">
+        <v>183</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>600</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="2" t="n">
+        <v>600</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" s="2" t="n"/>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="2" t="n">
+        <v>184</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="3" t="n">
+        <v>1250.2</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="3" t="n">
+        <v>1250.2</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" s="2" t="n"/>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="2" t="n">
+        <v>185</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>697.7</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" s="2" t="n">
+        <v>697.7</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6" s="2" t="n"/>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="2" t="n">
+        <v>186</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="3" t="n">
+        <v>1523.3</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" s="3" t="n">
+        <v>1523.3</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7" s="2" t="n"/>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="2" t="n">
+        <v>187</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="3" t="n">
+        <v>1178.9</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" s="3" t="n">
+        <v>1178.9</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I8" s="2" t="n"/>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="2" t="n">
+        <v>188</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="3" t="n">
+        <v>1600</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G9" s="3" t="n">
+        <v>1600</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I9" s="2" t="n"/>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="2" t="n">
+        <v>189</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="3" t="n">
+        <v>1600</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G10" s="3" t="n">
+        <v>1600</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I10" s="2" t="n"/>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="2" t="n">
+        <v>190</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="3" t="n">
+        <v>1527.7</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G11" s="3" t="n">
+        <v>1527.7</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I11" s="2" t="n"/>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="2" t="n">
+        <v>191</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="3" t="n">
+        <v>1378.7</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G12" s="3" t="n">
+        <v>1378.7</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I12" s="2" t="n"/>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="2" t="n">
+        <v>192</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="3" t="n">
+        <v>1716.5</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G13" s="3" t="n">
+        <v>1716.5</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I13" s="2" t="n"/>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="2" t="n">
+        <v>193</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="3" t="n">
+        <v>1600</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G14" s="3" t="n">
+        <v>1600</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I14" s="2" t="n"/>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="2" t="n">
+        <v>194</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="3" t="n">
+        <v>2050.7</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G15" s="3" t="n">
+        <v>2050.7</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I15" s="2" t="n"/>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="2" t="n">
+        <v>195</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="3" t="n">
+        <v>2348.3</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G16" s="3" t="n">
+        <v>2348.3</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I16" s="2" t="n"/>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="2" t="n">
+        <v>196</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" s="3" t="n">
+        <v>3661.9</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G17" s="3" t="n">
+        <v>3661.9</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I17" s="2" t="n"/>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="2" t="n">
+        <v>197</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" s="3" t="n">
+        <v>1600</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G18" s="3" t="n">
+        <v>1600</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I18" s="2" t="n"/>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="2" t="n">
+        <v>198</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D19" s="3" t="n">
+        <v>2336.1</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G19" s="3" t="n">
+        <v>2336.1</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I19" s="2" t="n"/>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="2" t="n">
+        <v>199</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D20" s="2" t="n">
+        <v>600</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G20" s="2" t="n">
+        <v>600</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I20" s="2" t="n"/>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="2" t="n">
+        <v>200</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D21" s="3" t="n">
+        <v>1846.2</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G21" s="3" t="n">
+        <v>1846.2</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I21" s="2" t="n"/>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="2" t="n">
+        <v>201</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D22" s="3" t="n">
+        <v>1600</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G22" s="3" t="n">
+        <v>1600</v>
+      </c>
+      <c r="H22" s="2" t="n"/>
+      <c r="I22" s="2" t="n"/>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="2" t="n">
+        <v>202</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D23" s="3" t="n">
+        <v>1351.4</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G23" s="3" t="n">
+        <v>1351.4</v>
+      </c>
+      <c r="H23" s="2" t="n"/>
+      <c r="I23" s="2" t="n"/>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="2" t="n">
+        <v>203</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D24" s="2" t="n">
+        <v>1600</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G24" s="2" t="n">
+        <v>1600</v>
+      </c>
+      <c r="H24" s="2" t="n"/>
+      <c r="I24" s="2" t="n"/>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="2" t="n">
+        <v>204</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D25" s="3" t="n">
+        <v>1600</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G25" s="3" t="n">
+        <v>1600</v>
+      </c>
+      <c r="H25" s="2" t="n"/>
+      <c r="I25" s="2" t="n"/>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="2" t="n">
+        <v>205</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D26" s="2" t="n">
+        <v>1600</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G26" s="2" t="n">
+        <v>1600</v>
+      </c>
+      <c r="H26" s="2" t="n"/>
+      <c r="I26" s="2" t="n"/>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="2" t="n">
+        <v>206</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D27" s="2" t="n">
+        <v>600</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="G27" s="2" t="n">
+        <v>600</v>
+      </c>
+      <c r="H27" s="2" t="n"/>
+      <c r="I27" s="2" t="n"/>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="2" t="n">
+        <v>207</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D28" s="3" t="n">
+        <v>600</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G28" s="3" t="n">
+        <v>600</v>
+      </c>
+      <c r="H28" s="2" t="n"/>
+      <c r="I28" s="2" t="n"/>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="2" t="n">
+        <v>208</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D29" s="2" t="n">
+        <v>1600</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="G29" s="2" t="n">
+        <v>1600</v>
+      </c>
+      <c r="H29" s="2" t="n"/>
+      <c r="I29" s="2" t="n"/>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="2" t="n">
+        <v>209</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D30" s="3" t="n">
+        <v>1600</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G30" s="3" t="n">
+        <v>1600</v>
+      </c>
+      <c r="H30" s="2" t="n"/>
+      <c r="I30" s="2" t="n"/>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="2" t="n">
+        <v>210</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D31" s="3" t="n">
+        <v>1497.5</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="G31" s="3" t="n">
+        <v>1497.5</v>
+      </c>
+      <c r="H31" s="2" t="n"/>
+      <c r="I31" s="2" t="n"/>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B32" s="2" t="n"/>
+      <c r="C32" s="2" t="n"/>
+      <c r="D32" s="2" t="n"/>
+      <c r="E32" s="2" t="n"/>
+      <c r="F32" s="2" t="n"/>
+      <c r="G32" s="2" t="n"/>
+      <c r="H32" s="2" t="n"/>
+      <c r="I32" s="2" t="n"/>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A33:I33"/>
+  </mergeCells>
+  <pageMargins bottom="1" footer="0.511805555555556" header="0.511805555555556" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="0"/>
+  <cols>
+    <col customWidth="1" max="1" min="1" style="1" width="5.125"/>
+    <col customWidth="1" max="2" min="2" style="1" width="10.875"/>
+    <col customWidth="1" max="3" min="3" style="1" width="12.625"/>
+    <col customWidth="1" max="4" min="4" style="1" width="9.375"/>
+    <col customWidth="1" max="5" min="5" style="1" width="21.5"/>
+    <col customWidth="1" max="6" min="6" style="1" width="17.125"/>
+    <col customWidth="1" max="7" min="7" style="1" width="9.375"/>
+    <col customWidth="1" max="8" min="8" style="1" width="12.625"/>
+    <col customWidth="1" max="9" min="9" style="1" width="5.125"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="2" t="n">
+        <v>211</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>1600</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G2" s="2" t="n">
+        <v>1600</v>
+      </c>
+      <c r="H2" s="2" t="n"/>
+      <c r="I2" s="2" t="n"/>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="2" t="n">
+        <v>212</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D3" s="3" t="n">
+        <v>1600</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="G3" s="3" t="n">
+        <v>1600</v>
+      </c>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="2" t="n">
+        <v>213</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>1371.8</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="G4" s="2" t="n">
+        <v>1371.8</v>
+      </c>
+      <c r="H4" s="2" t="n"/>
+      <c r="I4" s="2" t="n"/>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="2" t="n">
+        <v>214</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D5" s="3" t="n">
+        <v>1045.2</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="G5" s="3" t="n">
+        <v>1045.2</v>
+      </c>
+      <c r="H5" s="2" t="n"/>
+      <c r="I5" s="2" t="n"/>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="2" t="n">
+        <v>215</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>1752</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="G6" s="2" t="n">
+        <v>1752</v>
+      </c>
+      <c r="H6" s="2" t="n"/>
+      <c r="I6" s="2" t="n"/>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="2" t="n">
+        <v>216</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D7" s="3" t="n">
+        <v>1900.6</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="G7" s="3" t="n">
+        <v>1900.6</v>
+      </c>
+      <c r="H7" s="2" t="n"/>
+      <c r="I7" s="2" t="n"/>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="2" t="n">
+        <v>217</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D8" s="3" t="n">
+        <v>1600</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="G8" s="3" t="n">
+        <v>1600</v>
+      </c>
+      <c r="H8" s="2" t="n"/>
+      <c r="I8" s="2" t="n"/>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="2" t="n">
+        <v>218</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D9" s="3" t="n">
+        <v>3192.5</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="G9" s="3" t="n">
+        <v>3192.5</v>
+      </c>
+      <c r="H9" s="2" t="n"/>
+      <c r="I9" s="2" t="n"/>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="2" t="n">
+        <v>219</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D10" s="3" t="n">
+        <v>600</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="G10" s="3" t="n">
+        <v>600</v>
+      </c>
+      <c r="H10" s="2" t="n"/>
+      <c r="I10" s="2" t="n"/>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="2" t="n">
+        <v>220</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D11" s="3" t="n">
+        <v>600</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="G11" s="3" t="n">
+        <v>600</v>
+      </c>
+      <c r="H11" s="2" t="n"/>
+      <c r="I11" s="2" t="n"/>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="2" t="n">
+        <v>221</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D12" s="3" t="n">
+        <v>1228.7</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="G12" s="3" t="n">
+        <v>1228.7</v>
+      </c>
+      <c r="H12" s="2" t="n"/>
+      <c r="I12" s="2" t="n"/>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="2" t="n">
+        <v>222</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D13" s="3" t="n">
+        <v>600</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="G13" s="3" t="n">
+        <v>600</v>
+      </c>
+      <c r="H13" s="2" t="n"/>
+      <c r="I13" s="2" t="n"/>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="2" t="n">
+        <v>223</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D14" s="3" t="n">
+        <v>1600</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="G14" s="3" t="n">
+        <v>1600</v>
+      </c>
+      <c r="H14" s="2" t="n"/>
+      <c r="I14" s="2" t="n"/>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="2" t="n">
+        <v>224</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D15" s="3" t="n">
+        <v>600</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="G15" s="3" t="n">
+        <v>600</v>
+      </c>
+      <c r="H15" s="2" t="n"/>
+      <c r="I15" s="2" t="n"/>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="2" t="n">
+        <v>225</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D16" s="3" t="n">
+        <v>1600</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="G16" s="3" t="n">
+        <v>1600</v>
+      </c>
+      <c r="H16" s="2" t="n"/>
+      <c r="I16" s="2" t="n"/>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="2" t="n">
+        <v>226</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D17" s="3" t="n">
+        <v>1781.9</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="G17" s="3" t="n">
+        <v>1781.9</v>
+      </c>
+      <c r="H17" s="2" t="n"/>
+      <c r="I17" s="2" t="n"/>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="2" t="n">
+        <v>227</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D18" s="3" t="n">
+        <v>1600</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="G18" s="3" t="n">
+        <v>1600</v>
+      </c>
+      <c r="H18" s="2" t="n"/>
+      <c r="I18" s="2" t="n"/>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="2" t="n">
+        <v>228</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D19" s="3" t="n">
+        <v>600</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="G19" s="3" t="n">
+        <v>600</v>
+      </c>
+      <c r="H19" s="2" t="n"/>
+      <c r="I19" s="2" t="n"/>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="2" t="n">
+        <v>229</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D20" s="2" t="n">
+        <v>1600</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="G20" s="2" t="n">
+        <v>1600</v>
+      </c>
+      <c r="H20" s="2" t="n"/>
+      <c r="I20" s="2" t="n"/>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="2" t="n">
+        <v>230</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D21" s="3" t="n">
+        <v>600</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="G21" s="3" t="n">
+        <v>600</v>
+      </c>
+      <c r="H21" s="2" t="n"/>
+      <c r="I21" s="2" t="n"/>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="2" t="n">
+        <v>231</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D22" s="3" t="n">
+        <v>600</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="G22" s="3" t="n">
+        <v>600</v>
+      </c>
+      <c r="H22" s="2" t="n"/>
+      <c r="I22" s="2" t="n"/>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="2" t="n">
+        <v>232</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D23" s="3" t="n">
+        <v>1880.3</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="G23" s="3" t="n">
+        <v>1880.3</v>
+      </c>
+      <c r="H23" s="2" t="n"/>
+      <c r="I23" s="2" t="n"/>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="2" t="n">
+        <v>233</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D24" s="2" t="n">
+        <v>2492.8</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="G24" s="2" t="n">
+        <v>2492.8</v>
+      </c>
+      <c r="H24" s="2" t="n"/>
+      <c r="I24" s="2" t="n"/>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="2" t="n">
+        <v>234</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D25" s="3" t="n">
+        <v>1600</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="G25" s="3" t="n">
+        <v>1600</v>
+      </c>
+      <c r="H25" s="2" t="n"/>
+      <c r="I25" s="2" t="n"/>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="2" t="n">
+        <v>235</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D26" s="2" t="n">
+        <v>600</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="G26" s="2" t="n">
+        <v>600</v>
+      </c>
+      <c r="H26" s="2" t="n"/>
+      <c r="I26" s="2" t="n"/>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="2" t="n">
+        <v>236</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D27" s="2" t="n">
+        <v>1854.6</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="G27" s="2" t="n">
+        <v>1854.6</v>
+      </c>
+      <c r="H27" s="2" t="n"/>
+      <c r="I27" s="2" t="n"/>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="2" t="n">
+        <v>237</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D28" s="3" t="n">
+        <v>5930.7</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="G28" s="3" t="n">
+        <v>5930.7</v>
+      </c>
+      <c r="H28" s="2" t="n"/>
+      <c r="I28" s="2" t="n"/>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="2" t="n">
+        <v>238</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D29" s="2" t="n">
+        <v>1493.4</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="G29" s="2" t="n">
+        <v>1493.4</v>
+      </c>
+      <c r="H29" s="2" t="n"/>
+      <c r="I29" s="2" t="n"/>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="2" t="n">
+        <v>239</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D30" s="3" t="n">
+        <v>3066.2</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="G30" s="3" t="n">
+        <v>3066.2</v>
+      </c>
+      <c r="H30" s="2" t="n"/>
+      <c r="I30" s="2" t="n"/>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="2" t="n">
+        <v>240</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="D31" s="3" t="n">
+        <v>600</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="G31" s="3" t="n">
+        <v>600</v>
+      </c>
+      <c r="H31" s="2" t="n"/>
+      <c r="I31" s="2" t="n"/>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B32" s="2" t="n"/>
+      <c r="C32" s="2" t="n"/>
+      <c r="D32" s="2" t="n"/>
+      <c r="E32" s="2" t="n"/>
+      <c r="F32" s="2" t="n"/>
+      <c r="G32" s="2" t="n"/>
+      <c r="H32" s="2" t="n"/>
+      <c r="I32" s="2" t="n"/>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A33:I33"/>
+  </mergeCells>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="0"/>
+  <cols>
+    <col customWidth="1" max="1" min="1" style="1" width="5.125"/>
+    <col customWidth="1" max="2" min="2" style="1" width="10.875"/>
+    <col customWidth="1" max="3" min="3" style="1" width="12.625"/>
+    <col customWidth="1" max="4" min="4" style="1" width="9.375"/>
+    <col customWidth="1" max="5" min="5" style="1" width="21.5"/>
+    <col customWidth="1" max="6" min="6" style="1" width="17.125"/>
+    <col customWidth="1" max="7" min="7" style="1" width="9.375"/>
+    <col customWidth="1" max="8" min="8" style="1" width="12.625"/>
+    <col customWidth="1" max="9" min="9" style="1" width="5.125"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="2" t="n">
+        <v>181</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>1600</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="G2" s="2" t="n">
+        <v>1600</v>
+      </c>
+      <c r="H2" s="2" t="n"/>
+      <c r="I2" s="2" t="n"/>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="2" t="n">
+        <v>182</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="D3" s="3" t="n">
+        <v>1600</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="G3" s="3" t="n">
+        <v>1600</v>
+      </c>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="2" t="n">
+        <v>183</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>1600</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="G4" s="2" t="n">
+        <v>1600</v>
+      </c>
+      <c r="H4" s="2" t="n"/>
+      <c r="I4" s="2" t="n"/>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="2" t="n">
+        <v>184</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="D5" s="3" t="n">
+        <v>1600</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="G5" s="3" t="n">
+        <v>1600</v>
+      </c>
+      <c r="H5" s="2" t="n"/>
+      <c r="I5" s="2" t="n"/>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="2" t="n">
+        <v>185</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>1006.2</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="G6" s="2" t="n">
+        <v>1006.2</v>
+      </c>
+      <c r="H6" s="2" t="n"/>
+      <c r="I6" s="2" t="n"/>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="2" t="n">
+        <v>186</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="D7" s="3" t="n">
+        <v>820</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="G7" s="3" t="n">
+        <v>820</v>
+      </c>
+      <c r="H7" s="2" t="n"/>
+      <c r="I7" s="2" t="n"/>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="2" t="n">
+        <v>187</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="D8" s="3" t="n">
+        <v>600</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="G8" s="3" t="n">
+        <v>600</v>
+      </c>
+      <c r="H8" s="2" t="n"/>
+      <c r="I8" s="2" t="n"/>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="2" t="n">
+        <v>188</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="D9" s="3" t="n">
+        <v>1600</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="G9" s="3" t="n">
+        <v>1600</v>
+      </c>
+      <c r="H9" s="2" t="n"/>
+      <c r="I9" s="2" t="n"/>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="2" t="n">
+        <v>189</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="D10" s="3" t="n">
+        <v>1600</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="G10" s="3" t="n">
+        <v>1600</v>
+      </c>
+      <c r="H10" s="2" t="n"/>
+      <c r="I10" s="2" t="n"/>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="2" t="n">
+        <v>190</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="D11" s="3" t="n">
+        <v>1600</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="G11" s="3" t="n">
+        <v>1600</v>
+      </c>
+      <c r="H11" s="2" t="n"/>
+      <c r="I11" s="2" t="n"/>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="2" t="n">
+        <v>191</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="D12" s="3" t="n">
+        <v>600</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="G12" s="3" t="n">
+        <v>600</v>
+      </c>
+      <c r="H12" s="2" t="n"/>
+      <c r="I12" s="2" t="n"/>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="2" t="n">
+        <v>192</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="D13" s="3" t="n">
+        <v>1600</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="G13" s="3" t="n">
+        <v>1600</v>
+      </c>
+      <c r="H13" s="2" t="n"/>
+      <c r="I13" s="2" t="n"/>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="2" t="n">
+        <v>193</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="D14" s="3" t="n">
+        <v>600</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="G14" s="3" t="n">
+        <v>600</v>
+      </c>
+      <c r="H14" s="2" t="n"/>
+      <c r="I14" s="2" t="n"/>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="2" t="n">
+        <v>194</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="D15" s="3" t="n">
+        <v>1600</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="G15" s="3" t="n">
+        <v>1600</v>
+      </c>
+      <c r="H15" s="2" t="n"/>
+      <c r="I15" s="2" t="n"/>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="2" t="n">
+        <v>195</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="D16" s="3" t="n">
+        <v>1600</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="G16" s="3" t="n">
+        <v>1600</v>
+      </c>
+      <c r="H16" s="2" t="n"/>
+      <c r="I16" s="2" t="n"/>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="2" t="n">
+        <v>196</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="D17" s="3" t="n">
+        <v>600</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="G17" s="3" t="n">
+        <v>600</v>
+      </c>
+      <c r="H17" s="2" t="n"/>
+      <c r="I17" s="2" t="n"/>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="2" t="n">
+        <v>197</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="D18" s="3" t="n">
+        <v>5857.7</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="G18" s="3" t="n">
+        <v>5857.7</v>
+      </c>
+      <c r="H18" s="2" t="n"/>
+      <c r="I18" s="2" t="n"/>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="2" t="n">
+        <v>198</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="D19" s="3" t="n">
+        <v>1680.4</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="G19" s="3" t="n">
+        <v>1680.4</v>
+      </c>
+      <c r="H19" s="2" t="n"/>
+      <c r="I19" s="2" t="n"/>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="2" t="n">
+        <v>199</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="D20" s="2" t="n">
+        <v>2344</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="G20" s="2" t="n">
+        <v>2344</v>
+      </c>
+      <c r="H20" s="2" t="n"/>
+      <c r="I20" s="2" t="n"/>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="2" t="n">
+        <v>200</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="D21" s="3" t="n">
+        <v>2349.7</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="G21" s="3" t="n">
+        <v>2349.7</v>
+      </c>
+      <c r="H21" s="2" t="n"/>
+      <c r="I21" s="2" t="n"/>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="2" t="n">
+        <v>201</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="D22" s="3" t="n">
+        <v>553.4</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="G22" s="3" t="n">
+        <v>553.4</v>
+      </c>
+      <c r="H22" s="2" t="n"/>
+      <c r="I22" s="2" t="n"/>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="2" t="n">
+        <v>202</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="D23" s="3" t="n">
+        <v>1600</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="G23" s="3" t="n">
+        <v>1600</v>
+      </c>
+      <c r="H23" s="2" t="n"/>
+      <c r="I23" s="2" t="n"/>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="2" t="n">
+        <v>203</v>
+      </c>
+      <c r="B24" s="5" t="n"/>
+      <c r="C24" s="2" t="n"/>
+      <c r="D24" s="2" t="n"/>
+      <c r="E24" s="2" t="n"/>
+      <c r="F24" s="2" t="n"/>
+      <c r="G24" s="2" t="n"/>
+      <c r="H24" s="2" t="n"/>
+      <c r="I24" s="2" t="n"/>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="2" t="n">
+        <v>204</v>
+      </c>
+      <c r="B25" s="4" t="n"/>
+      <c r="C25" s="2" t="n"/>
+      <c r="D25" s="3" t="n"/>
+      <c r="E25" s="2" t="n"/>
+      <c r="F25" s="2" t="n"/>
+      <c r="G25" s="3" t="n"/>
+      <c r="H25" s="2" t="n"/>
+      <c r="I25" s="2" t="n"/>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="2" t="n">
+        <v>205</v>
+      </c>
+      <c r="B26" s="5" t="n"/>
+      <c r="C26" s="2" t="n"/>
+      <c r="D26" s="2" t="n"/>
+      <c r="E26" s="2" t="n"/>
+      <c r="F26" s="2" t="n"/>
+      <c r="G26" s="2" t="n"/>
+      <c r="H26" s="2" t="n"/>
+      <c r="I26" s="2" t="n"/>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="2" t="n">
+        <v>206</v>
+      </c>
+      <c r="B27" s="5" t="n"/>
+      <c r="C27" s="2" t="n"/>
+      <c r="D27" s="2" t="n"/>
+      <c r="E27" s="2" t="n"/>
+      <c r="F27" s="2" t="n"/>
+      <c r="G27" s="2" t="n"/>
+      <c r="H27" s="2" t="n"/>
+      <c r="I27" s="2" t="n"/>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="2" t="n">
+        <v>207</v>
+      </c>
+      <c r="B28" s="4" t="n"/>
+      <c r="C28" s="2" t="n"/>
+      <c r="D28" s="3" t="n"/>
+      <c r="E28" s="2" t="n"/>
+      <c r="F28" s="2" t="n"/>
+      <c r="G28" s="3" t="n"/>
+      <c r="H28" s="2" t="n"/>
+      <c r="I28" s="2" t="n"/>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="2" t="n">
+        <v>208</v>
+      </c>
+      <c r="B29" s="5" t="n"/>
+      <c r="C29" s="2" t="n"/>
+      <c r="D29" s="2" t="n"/>
+      <c r="E29" s="2" t="n"/>
+      <c r="F29" s="2" t="n"/>
+      <c r="G29" s="2" t="n"/>
+      <c r="H29" s="2" t="n"/>
+      <c r="I29" s="2" t="n"/>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="2" t="n">
+        <v>209</v>
+      </c>
+      <c r="B30" s="5" t="n"/>
+      <c r="C30" s="2" t="n"/>
+      <c r="D30" s="3" t="n"/>
+      <c r="E30" s="2" t="n"/>
+      <c r="F30" s="2" t="n"/>
+      <c r="G30" s="3" t="n"/>
+      <c r="H30" s="2" t="n"/>
+      <c r="I30" s="2" t="n"/>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="2" t="n">
+        <v>210</v>
+      </c>
+      <c r="B31" s="4" t="n"/>
+      <c r="C31" s="2" t="n"/>
+      <c r="D31" s="3" t="n"/>
+      <c r="E31" s="2" t="n"/>
+      <c r="F31" s="2" t="n"/>
+      <c r="G31" s="3" t="n"/>
+      <c r="H31" s="2" t="n"/>
+      <c r="I31" s="2" t="n"/>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B32" s="2" t="n"/>
+      <c r="C32" s="2" t="n"/>
+      <c r="D32" s="2" t="n"/>
+      <c r="E32" s="2" t="n"/>
+      <c r="F32" s="2" t="n"/>
+      <c r="G32" s="2" t="n"/>
+      <c r="H32" s="2" t="n"/>
+      <c r="I32" s="2" t="n"/>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A33:I33"/>
+  </mergeCells>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
 </file>
--- a/openpyxl_test/test.xlsx
+++ b/openpyxl_test/test.xlsx
@@ -7,7 +7,7 @@
   </bookViews>
   <sheets>
     <sheet name="sheetTemplate" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="sheet" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="sheet0" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="sheet1" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="sheet2" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
@@ -612,10 +612,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ " numFmtId="164"/>
-    <numFmt formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ " numFmtId="165"/>
+    <numFmt formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ " numFmtId="164"/>
+    <numFmt formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ " numFmtId="165"/>
     <numFmt formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ " numFmtId="166"/>
-    <numFmt formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ " numFmtId="167"/>
+    <numFmt formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ " numFmtId="167"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -638,14 +638,30 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color theme="0"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -659,7 +675,7 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -673,29 +689,6 @@
     </font>
     <font>
       <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF800080"/>
-      <sz val="11"/>
-      <u val="single"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FFFF0000"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
       <charset val="134"/>
       <b val="1"/>
       <color theme="3"/>
@@ -705,8 +698,30 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <i val="1"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color theme="0"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -729,8 +744,7 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -753,13 +767,6 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
       <b val="1"/>
       <color theme="1"/>
       <sz val="11"/>
@@ -769,13 +776,6 @@
       <name val="宋体"/>
       <charset val="0"/>
       <color rgb="FF006100"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF9C6500"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -795,13 +795,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -813,7 +813,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -825,19 +897,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -849,19 +927,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -873,85 +951,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -964,12 +970,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1014,6 +1014,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -1046,17 +1061,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1078,15 +1087,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1098,54 +1098,54 @@
   </borders>
   <cellStyleXfs count="49">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="164"/>
+    <xf borderId="0" fillId="2" fontId="6" numFmtId="0"/>
+    <xf borderId="2" fillId="5" fontId="11" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="166"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="165"/>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0"/>
-    <xf borderId="2" fillId="5" fontId="6" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="166"/>
+    <xf borderId="0" fillId="6" fontId="6" numFmtId="0"/>
+    <xf borderId="0" fillId="3" fontId="7" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="167"/>
-    <xf borderId="0" fillId="8" fontId="3" numFmtId="0"/>
-    <xf borderId="0" fillId="4" fontId="5" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="164"/>
-    <xf borderId="0" fillId="9" fontId="4" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0"/>
+    <xf borderId="0" fillId="9" fontId="13" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0"/>
-    <xf borderId="3" fillId="10" fontId="0" numFmtId="0"/>
-    <xf borderId="0" fillId="12" fontId="4" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0"/>
+    <xf borderId="4" fillId="8" fontId="0" numFmtId="0"/>
+    <xf borderId="0" fillId="10" fontId="13" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="14" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="10" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="0"/>
-    <xf borderId="4" fillId="0" fontId="13" numFmtId="0"/>
-    <xf borderId="4" fillId="0" fontId="14" numFmtId="0"/>
-    <xf borderId="0" fillId="18" fontId="4" numFmtId="0"/>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="0"/>
-    <xf borderId="0" fillId="13" fontId="4" numFmtId="0"/>
-    <xf borderId="6" fillId="19" fontId="15" numFmtId="0"/>
-    <xf borderId="2" fillId="19" fontId="16" numFmtId="0"/>
-    <xf borderId="7" fillId="20" fontId="17" numFmtId="0"/>
-    <xf borderId="0" fillId="17" fontId="3" numFmtId="0"/>
-    <xf borderId="0" fillId="7" fontId="4" numFmtId="0"/>
-    <xf borderId="8" fillId="0" fontId="18" numFmtId="0"/>
-    <xf borderId="9" fillId="0" fontId="19" numFmtId="0"/>
-    <xf borderId="0" fillId="23" fontId="20" numFmtId="0"/>
-    <xf borderId="0" fillId="24" fontId="21" numFmtId="0"/>
-    <xf borderId="0" fillId="25" fontId="3" numFmtId="0"/>
-    <xf borderId="0" fillId="26" fontId="4" numFmtId="0"/>
-    <xf borderId="0" fillId="14" fontId="3" numFmtId="0"/>
-    <xf borderId="0" fillId="27" fontId="3" numFmtId="0"/>
-    <xf borderId="0" fillId="11" fontId="3" numFmtId="0"/>
-    <xf borderId="0" fillId="22" fontId="3" numFmtId="0"/>
-    <xf borderId="0" fillId="28" fontId="4" numFmtId="0"/>
-    <xf borderId="0" fillId="16" fontId="4" numFmtId="0"/>
-    <xf borderId="0" fillId="6" fontId="3" numFmtId="0"/>
-    <xf borderId="0" fillId="15" fontId="3" numFmtId="0"/>
-    <xf borderId="0" fillId="3" fontId="4" numFmtId="0"/>
-    <xf borderId="0" fillId="21" fontId="3" numFmtId="0"/>
-    <xf borderId="0" fillId="29" fontId="4" numFmtId="0"/>
-    <xf borderId="0" fillId="30" fontId="4" numFmtId="0"/>
-    <xf borderId="0" fillId="31" fontId="3" numFmtId="0"/>
-    <xf borderId="0" fillId="32" fontId="4" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0"/>
+    <xf borderId="5" fillId="0" fontId="15" numFmtId="0"/>
+    <xf borderId="5" fillId="0" fontId="16" numFmtId="0"/>
+    <xf borderId="0" fillId="13" fontId="13" numFmtId="0"/>
+    <xf borderId="6" fillId="0" fontId="14" numFmtId="0"/>
+    <xf borderId="0" fillId="15" fontId="13" numFmtId="0"/>
+    <xf borderId="3" fillId="7" fontId="12" numFmtId="0"/>
+    <xf borderId="2" fillId="7" fontId="18" numFmtId="0"/>
+    <xf borderId="8" fillId="17" fontId="19" numFmtId="0"/>
+    <xf borderId="0" fillId="18" fontId="6" numFmtId="0"/>
+    <xf borderId="0" fillId="19" fontId="13" numFmtId="0"/>
+    <xf borderId="7" fillId="0" fontId="17" numFmtId="0"/>
+    <xf borderId="9" fillId="0" fontId="20" numFmtId="0"/>
+    <xf borderId="0" fillId="21" fontId="21" numFmtId="0"/>
+    <xf borderId="0" fillId="4" fontId="8" numFmtId="0"/>
+    <xf borderId="0" fillId="14" fontId="6" numFmtId="0"/>
+    <xf borderId="0" fillId="23" fontId="13" numFmtId="0"/>
+    <xf borderId="0" fillId="12" fontId="6" numFmtId="0"/>
+    <xf borderId="0" fillId="16" fontId="6" numFmtId="0"/>
+    <xf borderId="0" fillId="24" fontId="6" numFmtId="0"/>
+    <xf borderId="0" fillId="25" fontId="6" numFmtId="0"/>
+    <xf borderId="0" fillId="26" fontId="13" numFmtId="0"/>
+    <xf borderId="0" fillId="20" fontId="13" numFmtId="0"/>
+    <xf borderId="0" fillId="27" fontId="6" numFmtId="0"/>
+    <xf borderId="0" fillId="28" fontId="6" numFmtId="0"/>
+    <xf borderId="0" fillId="29" fontId="13" numFmtId="0"/>
+    <xf borderId="0" fillId="30" fontId="6" numFmtId="0"/>
+    <xf borderId="0" fillId="11" fontId="13" numFmtId="0"/>
+    <xf borderId="0" fillId="31" fontId="13" numFmtId="0"/>
+    <xf borderId="0" fillId="32" fontId="6" numFmtId="0"/>
+    <xf borderId="0" fillId="22" fontId="13" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="7">
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
@@ -3709,7 +3709,7 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="2" t="n">
-        <v>181</v>
+        <v>241</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>151</v>
@@ -3734,7 +3734,7 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="2" t="n">
-        <v>182</v>
+        <v>242</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>153</v>
@@ -3759,7 +3759,7 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="2" t="n">
-        <v>183</v>
+        <v>243</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>155</v>
@@ -3784,7 +3784,7 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="2" t="n">
-        <v>184</v>
+        <v>244</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>157</v>
@@ -3809,7 +3809,7 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="2" t="n">
-        <v>185</v>
+        <v>245</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>159</v>
@@ -3834,7 +3834,7 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="2" t="n">
-        <v>186</v>
+        <v>246</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>161</v>
@@ -3859,7 +3859,7 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="2" t="n">
-        <v>187</v>
+        <v>247</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>163</v>
@@ -3884,7 +3884,7 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="2" t="n">
-        <v>188</v>
+        <v>248</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>165</v>
@@ -3909,7 +3909,7 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="2" t="n">
-        <v>189</v>
+        <v>249</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>167</v>
@@ -3934,7 +3934,7 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="2" t="n">
-        <v>190</v>
+        <v>250</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>169</v>
@@ -3959,7 +3959,7 @@
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="2" t="n">
-        <v>191</v>
+        <v>251</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>171</v>
@@ -3984,7 +3984,7 @@
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="2" t="n">
-        <v>192</v>
+        <v>252</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>174</v>
@@ -4009,7 +4009,7 @@
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="2" t="n">
-        <v>193</v>
+        <v>253</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>176</v>
@@ -4034,7 +4034,7 @@
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="2" t="n">
-        <v>194</v>
+        <v>254</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>178</v>
@@ -4059,7 +4059,7 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="2" t="n">
-        <v>195</v>
+        <v>255</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>180</v>
@@ -4084,7 +4084,7 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="2" t="n">
-        <v>196</v>
+        <v>256</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>182</v>
@@ -4109,7 +4109,7 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="2" t="n">
-        <v>197</v>
+        <v>257</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>184</v>
@@ -4134,7 +4134,7 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="2" t="n">
-        <v>198</v>
+        <v>258</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>186</v>
@@ -4159,7 +4159,7 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="2" t="n">
-        <v>199</v>
+        <v>259</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>188</v>
@@ -4184,7 +4184,7 @@
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="2" t="n">
-        <v>200</v>
+        <v>260</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>190</v>
@@ -4209,7 +4209,7 @@
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="2" t="n">
-        <v>201</v>
+        <v>261</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>192</v>
@@ -4234,7 +4234,7 @@
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="2" t="n">
-        <v>202</v>
+        <v>262</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>194</v>
@@ -4259,7 +4259,7 @@
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="2" t="n">
-        <v>203</v>
+        <v>263</v>
       </c>
       <c r="B24" s="5" t="n"/>
       <c r="C24" s="2" t="n"/>
@@ -4272,7 +4272,7 @@
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="2" t="n">
-        <v>204</v>
+        <v>264</v>
       </c>
       <c r="B25" s="4" t="n"/>
       <c r="C25" s="2" t="n"/>
@@ -4285,7 +4285,7 @@
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="2" t="n">
-        <v>205</v>
+        <v>265</v>
       </c>
       <c r="B26" s="5" t="n"/>
       <c r="C26" s="2" t="n"/>
@@ -4298,7 +4298,7 @@
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="2" t="n">
-        <v>206</v>
+        <v>266</v>
       </c>
       <c r="B27" s="5" t="n"/>
       <c r="C27" s="2" t="n"/>
@@ -4311,7 +4311,7 @@
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="2" t="n">
-        <v>207</v>
+        <v>267</v>
       </c>
       <c r="B28" s="4" t="n"/>
       <c r="C28" s="2" t="n"/>
@@ -4324,7 +4324,7 @@
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="2" t="n">
-        <v>208</v>
+        <v>268</v>
       </c>
       <c r="B29" s="5" t="n"/>
       <c r="C29" s="2" t="n"/>
@@ -4337,7 +4337,7 @@
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="2" t="n">
-        <v>209</v>
+        <v>269</v>
       </c>
       <c r="B30" s="5" t="n"/>
       <c r="C30" s="2" t="n"/>
@@ -4350,7 +4350,7 @@
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="2" t="n">
-        <v>210</v>
+        <v>270</v>
       </c>
       <c r="B31" s="4" t="n"/>
       <c r="C31" s="2" t="n"/>
